--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE  HERRADURA  NOVIEMBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE  HERRADURA  NOVIEMBRE   2021.xlsx
@@ -2590,57 +2590,6 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2696,6 +2645,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4311,23 +4311,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="230"/>
-      <c r="C1" s="239" t="s">
+      <c r="B1" s="249"/>
+      <c r="C1" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -4337,17 +4337,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="233"/>
+      <c r="B3" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="252"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="234" t="s">
+      <c r="H3" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="234"/>
+      <c r="I3" s="253"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -4363,14 +4363,14 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="H4" s="237" t="s">
+      <c r="F4" s="255"/>
+      <c r="H4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="238"/>
+      <c r="I4" s="257"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4380,10 +4380,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="224" t="s">
+      <c r="P4" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="225"/>
+      <c r="Q4" s="244"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -5878,11 +5878,11 @@
       <c r="L39" s="69">
         <v>454.62</v>
       </c>
-      <c r="M39" s="226">
+      <c r="M39" s="245">
         <f>SUM(M5:M38)</f>
         <v>1393675.5</v>
       </c>
-      <c r="N39" s="228">
+      <c r="N39" s="247">
         <f>SUM(N5:N38)</f>
         <v>28399.97</v>
       </c>
@@ -5914,8 +5914,8 @@
       <c r="L40" s="69">
         <v>1195.67</v>
       </c>
-      <c r="M40" s="227"/>
-      <c r="N40" s="229"/>
+      <c r="M40" s="246"/>
+      <c r="N40" s="248"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -6148,29 +6148,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="250" t="s">
+      <c r="H52" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="251"/>
+      <c r="I52" s="234"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="252">
+      <c r="K52" s="235">
         <f>I50+L50</f>
         <v>80916.84</v>
       </c>
-      <c r="L52" s="253"/>
-      <c r="M52" s="241">
+      <c r="L52" s="236"/>
+      <c r="M52" s="224">
         <f>N39+M39</f>
         <v>1422075.47</v>
       </c>
-      <c r="N52" s="242"/>
+      <c r="N52" s="225"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="254" t="s">
+      <c r="D53" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="254"/>
+      <c r="E53" s="237"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1396181.44</v>
@@ -6181,22 +6181,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="255" t="s">
+      <c r="D54" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="255"/>
+      <c r="E54" s="238"/>
       <c r="F54" s="102">
         <v>-1523111</v>
       </c>
-      <c r="I54" s="256" t="s">
+      <c r="I54" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="257"/>
-      <c r="K54" s="258">
+      <c r="J54" s="240"/>
+      <c r="K54" s="241">
         <f>F56+F57+F58</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L54" s="259"/>
+      <c r="L54" s="242"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6227,10 +6227,10 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="243">
-        <v>0</v>
-      </c>
-      <c r="L56" s="244"/>
+      <c r="K56" s="226">
+        <v>0</v>
+      </c>
+      <c r="L56" s="227"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -6247,22 +6247,22 @@
       <c r="C58" s="120">
         <v>44444</v>
       </c>
-      <c r="D58" s="245" t="s">
+      <c r="D58" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="246"/>
+      <c r="E58" s="229"/>
       <c r="F58" s="121">
         <v>136234.76999999999</v>
       </c>
-      <c r="I58" s="247" t="s">
+      <c r="I58" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="248"/>
-      <c r="K58" s="249">
+      <c r="J58" s="231"/>
+      <c r="K58" s="232">
         <f>K54+K56</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L58" s="249"/>
+      <c r="L58" s="232"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -6406,6 +6406,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C1:M1"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:E58"/>
@@ -6417,15 +6426,6 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8139,23 +8139,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="230"/>
-      <c r="C1" s="239" t="s">
+      <c r="B1" s="249"/>
+      <c r="C1" s="258" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -8165,17 +8165,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="233"/>
+      <c r="B3" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="252"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="234" t="s">
+      <c r="H3" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="234"/>
+      <c r="I3" s="253"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -8191,14 +8191,14 @@
       <c r="D4" s="16">
         <v>44444</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="H4" s="237" t="s">
+      <c r="F4" s="255"/>
+      <c r="H4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="238"/>
+      <c r="I4" s="257"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -8208,10 +8208,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="224" t="s">
+      <c r="P4" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="225"/>
+      <c r="Q4" s="244"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9701,11 +9701,11 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="226">
+      <c r="M39" s="245">
         <f>SUM(M5:M38)</f>
         <v>1464441</v>
       </c>
-      <c r="N39" s="228">
+      <c r="N39" s="247">
         <f>SUM(N5:N38)</f>
         <v>53494</v>
       </c>
@@ -9731,8 +9731,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="227"/>
-      <c r="N40" s="229"/>
+      <c r="M40" s="246"/>
+      <c r="N40" s="248"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9947,29 +9947,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="250" t="s">
+      <c r="H52" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="251"/>
+      <c r="I52" s="234"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="252">
+      <c r="K52" s="235">
         <f>I50+L50</f>
         <v>69642.26999999999</v>
       </c>
-      <c r="L52" s="253"/>
-      <c r="M52" s="241">
+      <c r="L52" s="236"/>
+      <c r="M52" s="224">
         <f>N39+M39</f>
         <v>1517935</v>
       </c>
-      <c r="N52" s="242"/>
+      <c r="N52" s="225"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="254" t="s">
+      <c r="D53" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="254"/>
+      <c r="E53" s="237"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1505921.23</v>
@@ -9980,22 +9980,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="255" t="s">
+      <c r="D54" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="255"/>
+      <c r="E54" s="238"/>
       <c r="F54" s="102">
         <v>-1424333.95</v>
       </c>
-      <c r="I54" s="256" t="s">
+      <c r="I54" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="257"/>
-      <c r="K54" s="258">
+      <c r="J54" s="240"/>
+      <c r="K54" s="241">
         <f>F56+F57+F58</f>
         <v>222140.17000000004</v>
       </c>
-      <c r="L54" s="259"/>
+      <c r="L54" s="242"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10026,11 +10026,11 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="243">
+      <c r="K56" s="226">
         <f>-C4</f>
         <v>-136234.76999999999</v>
       </c>
-      <c r="L56" s="244"/>
+      <c r="L56" s="227"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -10047,22 +10047,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="245" t="s">
+      <c r="D58" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="246"/>
+      <c r="E58" s="229"/>
       <c r="F58" s="121">
         <v>134848.89000000001</v>
       </c>
-      <c r="I58" s="247" t="s">
+      <c r="I58" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="248"/>
-      <c r="K58" s="249">
+      <c r="J58" s="231"/>
+      <c r="K58" s="232">
         <f>K54+K56</f>
         <v>85905.400000000052</v>
       </c>
-      <c r="L58" s="249"/>
+      <c r="L58" s="232"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -10206,6 +10206,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10220,12 +10226,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11826,8 +11826,8 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11849,23 +11849,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="230"/>
-      <c r="C1" s="239" t="s">
+      <c r="B1" s="249"/>
+      <c r="C1" s="258" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -11875,17 +11875,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="233"/>
+      <c r="B3" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="252"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="234" t="s">
+      <c r="H3" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="234"/>
+      <c r="I3" s="253"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -11901,14 +11901,14 @@
       <c r="D4" s="16">
         <v>44472</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="H4" s="237" t="s">
+      <c r="F4" s="255"/>
+      <c r="H4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="238"/>
+      <c r="I4" s="257"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -11918,10 +11918,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="224" t="s">
+      <c r="P4" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="225"/>
+      <c r="Q4" s="244"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -13496,11 +13496,11 @@
       <c r="L40" s="69">
         <v>1195.68</v>
       </c>
-      <c r="M40" s="226">
+      <c r="M40" s="245">
         <f>SUM(M5:M39)</f>
         <v>1982944.5</v>
       </c>
-      <c r="N40" s="228">
+      <c r="N40" s="247">
         <f>SUM(N5:N39)</f>
         <v>62048</v>
       </c>
@@ -13530,10 +13530,10 @@
         <v>265</v>
       </c>
       <c r="L41" s="69">
-        <v>738.22</v>
-      </c>
-      <c r="M41" s="227"/>
-      <c r="N41" s="229"/>
+        <v>942.84</v>
+      </c>
+      <c r="M41" s="246"/>
+      <c r="N41" s="248"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13748,7 +13748,7 @@
       </c>
       <c r="L51" s="101">
         <f>SUM(L5:L50)</f>
-        <v>102006.04999999999</v>
+        <v>102210.66999999998</v>
       </c>
       <c r="M51" s="102"/>
       <c r="N51" s="102"/>
@@ -13766,32 +13766,32 @@
       <c r="A53" s="104"/>
       <c r="B53" s="105"/>
       <c r="C53" s="3"/>
-      <c r="H53" s="250" t="s">
+      <c r="H53" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="251"/>
+      <c r="I53" s="234"/>
       <c r="J53" s="106"/>
-      <c r="K53" s="252">
+      <c r="K53" s="235">
         <f>I51+L51</f>
-        <v>103934.54999999999</v>
-      </c>
-      <c r="L53" s="253"/>
-      <c r="M53" s="241">
+        <v>104139.16999999998</v>
+      </c>
+      <c r="L53" s="236"/>
+      <c r="M53" s="224">
         <f>N40+M40</f>
         <v>2044992.5</v>
       </c>
-      <c r="N53" s="242"/>
+      <c r="N53" s="225"/>
       <c r="P53" s="83"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="254" t="s">
+      <c r="D54" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="254"/>
+      <c r="E54" s="237"/>
       <c r="F54" s="107">
         <f>F51-K53-C51</f>
-        <v>2004809.95</v>
+        <v>2004605.33</v>
       </c>
       <c r="I54" s="108"/>
       <c r="J54" s="109"/>
@@ -13799,22 +13799,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="255" t="s">
+      <c r="D55" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="255"/>
+      <c r="E55" s="238"/>
       <c r="F55" s="102">
         <v>-2026393.17</v>
       </c>
-      <c r="I55" s="256" t="s">
+      <c r="I55" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="257"/>
-      <c r="K55" s="258">
+      <c r="J55" s="240"/>
+      <c r="K55" s="241">
         <f>F57+F58+F59</f>
-        <v>178916.18000000002</v>
-      </c>
-      <c r="L55" s="259"/>
+        <v>178711.56000000014</v>
+      </c>
+      <c r="L55" s="242"/>
       <c r="P55" s="83"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13838,18 +13838,18 @@
       </c>
       <c r="F57" s="102">
         <f>SUM(F54:F56)</f>
-        <v>-21583.219999999972</v>
+        <v>-21787.839999999851</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="116" t="s">
         <v>13</v>
       </c>
       <c r="J57" s="117"/>
-      <c r="K57" s="243">
+      <c r="K57" s="226">
         <f>-C4</f>
         <v>-134848.89000000001</v>
       </c>
-      <c r="L57" s="244"/>
+      <c r="L57" s="227"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="118" t="s">
@@ -13866,22 +13866,22 @@
       <c r="C59" s="120">
         <v>44507</v>
       </c>
-      <c r="D59" s="245" t="s">
+      <c r="D59" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="246"/>
+      <c r="E59" s="229"/>
       <c r="F59" s="121">
         <v>192529.4</v>
       </c>
-      <c r="I59" s="247" t="s">
+      <c r="I59" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="248"/>
-      <c r="K59" s="249">
+      <c r="J59" s="231"/>
+      <c r="K59" s="232">
         <f>K55+K57</f>
-        <v>44067.290000000008</v>
-      </c>
-      <c r="L59" s="249"/>
+        <v>43862.670000000129</v>
+      </c>
+      <c r="L59" s="232"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="122"/>
@@ -14025,6 +14025,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
@@ -14039,12 +14045,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE  HERRADURA  NOVIEMBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE  HERRADURA  NOVIEMBRE   2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="A G O S T O    2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="REMISIONES  SEPTIEMBRE  2021  " sheetId="5" r:id="rId4"/>
     <sheet name="OCTUBRE   2 0 2 1             " sheetId="7" r:id="rId5"/>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="8" r:id="rId6"/>
-    <sheet name="Hoja3" sheetId="9" r:id="rId7"/>
-    <sheet name="CANCELACIONES         " sheetId="6" r:id="rId8"/>
+    <sheet name="    NOVIEMBRE     2 0 2 1      " sheetId="9" r:id="rId7"/>
+    <sheet name="   REMISIONES  NOVIEMBRE  2021" sheetId="10" r:id="rId8"/>
+    <sheet name="Hoja2" sheetId="11" r:id="rId9"/>
+    <sheet name="CANCELACIONES         " sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -204,8 +206,66 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="268">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1003,6 +1063,12 @@
   </si>
   <si>
     <t xml:space="preserve">COMISION P.V. </t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A     NOVIEMBRE            2 0 2 1</t>
+  </si>
+  <si>
+    <t>LONGANIZA</t>
   </si>
 </sst>
 </file>
@@ -2590,6 +2656,57 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2645,57 +2762,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4020,6 +4086,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5105400" y="11239499"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="10744200"/>
+          <a:ext cx="533400" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5105400" y="11239499"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="10725150"/>
+          <a:ext cx="1781175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7677151" y="9858372"/>
+          <a:ext cx="200026" cy="2124077"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="11551400"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5029200" y="11572875"/>
+          <a:ext cx="923925" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4311,23 +4803,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="258" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="239" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="231"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -4337,17 +4829,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="252"/>
+      <c r="B3" s="232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="233"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="234"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -4363,14 +4855,14 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="255"/>
-      <c r="H4" s="256" t="s">
+      <c r="F4" s="236"/>
+      <c r="H4" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="257"/>
+      <c r="I4" s="238"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4380,10 +4872,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="243" t="s">
+      <c r="P4" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="244"/>
+      <c r="Q4" s="225"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -5878,11 +6370,11 @@
       <c r="L39" s="69">
         <v>454.62</v>
       </c>
-      <c r="M39" s="245">
+      <c r="M39" s="226">
         <f>SUM(M5:M38)</f>
         <v>1393675.5</v>
       </c>
-      <c r="N39" s="247">
+      <c r="N39" s="228">
         <f>SUM(N5:N38)</f>
         <v>28399.97</v>
       </c>
@@ -5914,8 +6406,8 @@
       <c r="L40" s="69">
         <v>1195.67</v>
       </c>
-      <c r="M40" s="246"/>
-      <c r="N40" s="248"/>
+      <c r="M40" s="227"/>
+      <c r="N40" s="229"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -6148,29 +6640,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="233" t="s">
+      <c r="H52" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="234"/>
+      <c r="I52" s="251"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="235">
+      <c r="K52" s="252">
         <f>I50+L50</f>
         <v>80916.84</v>
       </c>
-      <c r="L52" s="236"/>
-      <c r="M52" s="224">
+      <c r="L52" s="253"/>
+      <c r="M52" s="241">
         <f>N39+M39</f>
         <v>1422075.47</v>
       </c>
-      <c r="N52" s="225"/>
+      <c r="N52" s="242"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="237" t="s">
+      <c r="D53" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="237"/>
+      <c r="E53" s="254"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1396181.44</v>
@@ -6181,22 +6673,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="238" t="s">
+      <c r="D54" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="238"/>
+      <c r="E54" s="255"/>
       <c r="F54" s="102">
         <v>-1523111</v>
       </c>
-      <c r="I54" s="239" t="s">
+      <c r="I54" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="240"/>
-      <c r="K54" s="241">
+      <c r="J54" s="257"/>
+      <c r="K54" s="258">
         <f>F56+F57+F58</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L54" s="242"/>
+      <c r="L54" s="259"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6227,10 +6719,10 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="226">
-        <v>0</v>
-      </c>
-      <c r="L56" s="227"/>
+      <c r="K56" s="243">
+        <v>0</v>
+      </c>
+      <c r="L56" s="244"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -6247,22 +6739,22 @@
       <c r="C58" s="120">
         <v>44444</v>
       </c>
-      <c r="D58" s="228" t="s">
+      <c r="D58" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="229"/>
+      <c r="E58" s="246"/>
       <c r="F58" s="121">
         <v>136234.76999999999</v>
       </c>
-      <c r="I58" s="230" t="s">
+      <c r="I58" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="231"/>
-      <c r="K58" s="232">
+      <c r="J58" s="248"/>
+      <c r="K58" s="249">
         <f>K54+K56</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L58" s="232"/>
+      <c r="L58" s="249"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -6406,15 +6898,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C1:M1"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:E58"/>
@@ -6426,11 +6909,218 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A23:G54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="163"/>
+      <c r="B45" s="263" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="264"/>
+      <c r="D45" s="264"/>
+      <c r="E45" s="265"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="168">
+        <v>44504</v>
+      </c>
+      <c r="B46" s="169" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="170">
+        <v>9981.4500000000007</v>
+      </c>
+      <c r="D46" s="171" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="172" t="s">
+        <v>204</v>
+      </c>
+      <c r="F46" s="107">
+        <v>2781</v>
+      </c>
+      <c r="G46" s="209"/>
+    </row>
+    <row r="47" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="168"/>
+      <c r="B47" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="170">
+        <v>0</v>
+      </c>
+      <c r="D47" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="107">
+        <v>0</v>
+      </c>
+      <c r="G47" s="208"/>
+    </row>
+    <row r="48" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="168"/>
+      <c r="B48" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="170">
+        <v>0</v>
+      </c>
+      <c r="D48" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="168"/>
+      <c r="B49" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="170">
+        <v>0</v>
+      </c>
+      <c r="D49" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="164"/>
+      <c r="B50" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="170">
+        <v>0</v>
+      </c>
+      <c r="D50" s="165" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="164"/>
+      <c r="B51" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" s="170">
+        <v>0</v>
+      </c>
+      <c r="D51" s="165" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="164"/>
+      <c r="B52" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="170">
+        <v>0</v>
+      </c>
+      <c r="D52" s="165" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="166"/>
+      <c r="B53" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="170">
+        <v>0</v>
+      </c>
+      <c r="D53" s="167" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sortState ref="A46:F47">
+    <sortCondition ref="B46:B47"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B45:E45"/>
+  </mergeCells>
+  <pageMargins left="0.39" right="0.13" top="0.75" bottom="0.27" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8139,23 +8829,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="258" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="239" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="231"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -8165,17 +8855,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="252"/>
+      <c r="B3" s="232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="233"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="234"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -8191,14 +8881,14 @@
       <c r="D4" s="16">
         <v>44444</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="255"/>
-      <c r="H4" s="256" t="s">
+      <c r="F4" s="236"/>
+      <c r="H4" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="257"/>
+      <c r="I4" s="238"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -8208,10 +8898,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="243" t="s">
+      <c r="P4" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="244"/>
+      <c r="Q4" s="225"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9701,11 +10391,11 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="245">
+      <c r="M39" s="226">
         <f>SUM(M5:M38)</f>
         <v>1464441</v>
       </c>
-      <c r="N39" s="247">
+      <c r="N39" s="228">
         <f>SUM(N5:N38)</f>
         <v>53494</v>
       </c>
@@ -9731,8 +10421,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="246"/>
-      <c r="N40" s="248"/>
+      <c r="M40" s="227"/>
+      <c r="N40" s="229"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9947,29 +10637,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="233" t="s">
+      <c r="H52" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="234"/>
+      <c r="I52" s="251"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="235">
+      <c r="K52" s="252">
         <f>I50+L50</f>
         <v>69642.26999999999</v>
       </c>
-      <c r="L52" s="236"/>
-      <c r="M52" s="224">
+      <c r="L52" s="253"/>
+      <c r="M52" s="241">
         <f>N39+M39</f>
         <v>1517935</v>
       </c>
-      <c r="N52" s="225"/>
+      <c r="N52" s="242"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="237" t="s">
+      <c r="D53" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="237"/>
+      <c r="E53" s="254"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1505921.23</v>
@@ -9980,22 +10670,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="238" t="s">
+      <c r="D54" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="238"/>
+      <c r="E54" s="255"/>
       <c r="F54" s="102">
         <v>-1424333.95</v>
       </c>
-      <c r="I54" s="239" t="s">
+      <c r="I54" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="240"/>
-      <c r="K54" s="241">
+      <c r="J54" s="257"/>
+      <c r="K54" s="258">
         <f>F56+F57+F58</f>
         <v>222140.17000000004</v>
       </c>
-      <c r="L54" s="242"/>
+      <c r="L54" s="259"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10026,11 +10716,11 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="226">
+      <c r="K56" s="243">
         <f>-C4</f>
         <v>-136234.76999999999</v>
       </c>
-      <c r="L56" s="227"/>
+      <c r="L56" s="244"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -10047,22 +10737,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="228" t="s">
+      <c r="D58" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="229"/>
+      <c r="E58" s="246"/>
       <c r="F58" s="121">
         <v>134848.89000000001</v>
       </c>
-      <c r="I58" s="230" t="s">
+      <c r="I58" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="231"/>
-      <c r="K58" s="232">
+      <c r="J58" s="248"/>
+      <c r="K58" s="249">
         <f>K54+K56</f>
         <v>85905.400000000052</v>
       </c>
-      <c r="L58" s="232"/>
+      <c r="L58" s="249"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -10206,12 +10896,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10226,6 +10910,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11826,8 +12516,8 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11849,23 +12539,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="258" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="239" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="231"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -11875,17 +12565,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="252"/>
+      <c r="B3" s="232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="233"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="234"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -11901,14 +12591,14 @@
       <c r="D4" s="16">
         <v>44472</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="255"/>
-      <c r="H4" s="256" t="s">
+      <c r="F4" s="236"/>
+      <c r="H4" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="257"/>
+      <c r="I4" s="238"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -11918,10 +12608,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="243" t="s">
+      <c r="P4" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="244"/>
+      <c r="Q4" s="225"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -13496,11 +14186,11 @@
       <c r="L40" s="69">
         <v>1195.68</v>
       </c>
-      <c r="M40" s="245">
+      <c r="M40" s="226">
         <f>SUM(M5:M39)</f>
         <v>1982944.5</v>
       </c>
-      <c r="N40" s="247">
+      <c r="N40" s="228">
         <f>SUM(N5:N39)</f>
         <v>62048</v>
       </c>
@@ -13532,8 +14222,8 @@
       <c r="L41" s="69">
         <v>942.84</v>
       </c>
-      <c r="M41" s="246"/>
-      <c r="N41" s="248"/>
+      <c r="M41" s="227"/>
+      <c r="N41" s="229"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13766,29 +14456,29 @@
       <c r="A53" s="104"/>
       <c r="B53" s="105"/>
       <c r="C53" s="3"/>
-      <c r="H53" s="233" t="s">
+      <c r="H53" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="234"/>
+      <c r="I53" s="251"/>
       <c r="J53" s="106"/>
-      <c r="K53" s="235">
+      <c r="K53" s="252">
         <f>I51+L51</f>
         <v>104139.16999999998</v>
       </c>
-      <c r="L53" s="236"/>
-      <c r="M53" s="224">
+      <c r="L53" s="253"/>
+      <c r="M53" s="241">
         <f>N40+M40</f>
         <v>2044992.5</v>
       </c>
-      <c r="N53" s="225"/>
+      <c r="N53" s="242"/>
       <c r="P53" s="83"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="237" t="s">
+      <c r="D54" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="237"/>
+      <c r="E54" s="254"/>
       <c r="F54" s="107">
         <f>F51-K53-C51</f>
         <v>2004605.33</v>
@@ -13799,22 +14489,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="238" t="s">
+      <c r="D55" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="238"/>
+      <c r="E55" s="255"/>
       <c r="F55" s="102">
         <v>-2026393.17</v>
       </c>
-      <c r="I55" s="239" t="s">
+      <c r="I55" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="240"/>
-      <c r="K55" s="241">
+      <c r="J55" s="257"/>
+      <c r="K55" s="258">
         <f>F57+F58+F59</f>
         <v>178711.56000000014</v>
       </c>
-      <c r="L55" s="242"/>
+      <c r="L55" s="259"/>
       <c r="P55" s="83"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13845,11 +14535,11 @@
         <v>13</v>
       </c>
       <c r="J57" s="117"/>
-      <c r="K57" s="226">
+      <c r="K57" s="243">
         <f>-C4</f>
         <v>-134848.89000000001</v>
       </c>
-      <c r="L57" s="227"/>
+      <c r="L57" s="244"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="118" t="s">
@@ -13866,22 +14556,22 @@
       <c r="C59" s="120">
         <v>44507</v>
       </c>
-      <c r="D59" s="228" t="s">
+      <c r="D59" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="229"/>
+      <c r="E59" s="246"/>
       <c r="F59" s="121">
         <v>192529.4</v>
       </c>
-      <c r="I59" s="230" t="s">
+      <c r="I59" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="231"/>
-      <c r="K59" s="232">
+      <c r="J59" s="248"/>
+      <c r="K59" s="249">
         <f>K55+K57</f>
         <v>43862.670000000129</v>
       </c>
-      <c r="L59" s="232"/>
+      <c r="L59" s="249"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="122"/>
@@ -14025,12 +14715,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
@@ -14045,6 +14729,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14061,7 +14751,7 @@
   <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A46" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15733,211 +16423,3188 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="103" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="230"/>
+      <c r="C1" s="239" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="231"/>
+      <c r="C2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="233"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="234" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="234"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15">
+        <v>192529.4</v>
+      </c>
+      <c r="D4" s="16">
+        <v>44507</v>
+      </c>
+      <c r="E4" s="235" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="236"/>
+      <c r="H4" s="237" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="238"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="159" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="224" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="225"/>
+    </row>
+    <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44508</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24">
+        <v>44508</v>
+      </c>
+      <c r="F5" s="25">
+        <v>40973</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27">
+        <v>44508</v>
+      </c>
+      <c r="I5" s="28">
+        <v>537</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="138">
+        <f>28400+20000+28</f>
+        <v>48428</v>
+      </c>
+      <c r="N5" s="30">
+        <v>0</v>
+      </c>
+      <c r="O5" s="26"/>
+      <c r="P5" s="83">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>48965</v>
+      </c>
+      <c r="Q5" s="216">
+        <f>P5-F5</f>
+        <v>7992</v>
+      </c>
+      <c r="R5" s="51"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21">
+        <v>44509</v>
+      </c>
+      <c r="C6" s="22">
+        <v>2720</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="24">
+        <v>44509</v>
+      </c>
+      <c r="F6" s="25">
+        <v>48658</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="32">
+        <v>44509</v>
+      </c>
+      <c r="I6" s="28">
+        <v>10</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="138">
+        <f>15000+30930</f>
+        <v>45930</v>
+      </c>
+      <c r="N6" s="30">
+        <v>0</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="83">
+        <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
+        <v>48660</v>
+      </c>
+      <c r="Q6" s="136">
+        <f t="shared" ref="Q6:Q39" si="1">P6-F6</f>
+        <v>2</v>
+      </c>
+      <c r="R6" s="26"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21">
+        <v>44510</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="24">
+        <v>44510</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="32">
+        <v>44510</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="138">
+        <v>0</v>
+      </c>
+      <c r="N7" s="30">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26"/>
+      <c r="P7" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="26"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21">
+        <v>44511</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="24">
+        <v>44511</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="32">
+        <v>44511</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="138">
+        <v>0</v>
+      </c>
+      <c r="N8" s="30">
+        <v>0</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="51"/>
+    </row>
+    <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21">
+        <v>44512</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="24">
+        <v>44512</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="32">
+        <v>44512</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="138">
+        <v>0</v>
+      </c>
+      <c r="N9" s="30">
+        <v>0</v>
+      </c>
+      <c r="O9" s="26"/>
+      <c r="P9" s="83">
+        <f>N9+M9+L9+I9+C9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>P9-F9</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="26"/>
+    </row>
+    <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21">
+        <v>44513</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="24">
+        <v>44513</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="32">
+        <v>44513</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="138">
+        <v>0</v>
+      </c>
+      <c r="N10" s="30">
+        <v>0</v>
+      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="51"/>
+    </row>
+    <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21">
+        <v>44514</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="24">
+        <v>44514</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="32">
+        <v>44514</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="138">
+        <v>0</v>
+      </c>
+      <c r="N11" s="30">
+        <v>0</v>
+      </c>
+      <c r="O11" s="26"/>
+      <c r="P11" s="83">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="26"/>
+    </row>
+    <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21">
+        <v>44515</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="24">
+        <v>44515</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="32">
+        <v>44515</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="138">
+        <v>0</v>
+      </c>
+      <c r="N12" s="30">
+        <v>0</v>
+      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="26"/>
+    </row>
+    <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21">
+        <v>44516</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="24">
+        <v>44516</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="32">
+        <v>44516</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="138">
+        <v>0</v>
+      </c>
+      <c r="N13" s="30">
+        <v>0</v>
+      </c>
+      <c r="O13" s="26"/>
+      <c r="P13" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="204"/>
+    </row>
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21">
+        <v>44517</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="24">
+        <v>44517</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="32">
+        <v>44517</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="138">
+        <v>0</v>
+      </c>
+      <c r="N14" s="30">
+        <v>0</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="204"/>
+    </row>
+    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21">
+        <v>44518</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="24">
+        <v>44518</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="32">
+        <v>44518</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="138">
+        <v>0</v>
+      </c>
+      <c r="N15" s="30">
+        <v>0</v>
+      </c>
+      <c r="P15" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="217">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="26"/>
+    </row>
+    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21">
+        <v>44519</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="24">
+        <v>44519</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="32">
+        <v>44519</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="138">
+        <v>0</v>
+      </c>
+      <c r="N16" s="30">
+        <v>0</v>
+      </c>
+      <c r="P16" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21">
+        <v>44520</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="24">
+        <v>44520</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="32">
+        <v>44520</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="138">
+        <v>0</v>
+      </c>
+      <c r="N17" s="30">
+        <v>0</v>
+      </c>
+      <c r="P17" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="26"/>
+    </row>
+    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21">
+        <v>44521</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="24">
+        <v>44521</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="32">
+        <v>44521</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="138">
+        <v>0</v>
+      </c>
+      <c r="N18" s="30">
+        <v>0</v>
+      </c>
+      <c r="P18" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21">
+        <v>44522</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="24">
+        <v>44522</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="32">
+        <v>44522</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="138">
+        <v>0</v>
+      </c>
+      <c r="N19" s="30">
+        <v>0</v>
+      </c>
+      <c r="P19" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21">
+        <v>44523</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="24">
+        <v>44523</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="32">
+        <v>44523</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="138">
+        <v>0</v>
+      </c>
+      <c r="N20" s="30">
+        <v>0</v>
+      </c>
+      <c r="P20" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="26"/>
+    </row>
+    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21">
+        <v>44524</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="24">
+        <v>44524</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="32">
+        <v>44524</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="138">
+        <v>0</v>
+      </c>
+      <c r="N21" s="30">
+        <v>0</v>
+      </c>
+      <c r="P21" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="26"/>
+    </row>
+    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21">
+        <v>44525</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="24">
+        <v>44525</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="32">
+        <v>44525</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="138">
+        <v>0</v>
+      </c>
+      <c r="N22" s="30">
+        <v>0</v>
+      </c>
+      <c r="P22" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="26"/>
+    </row>
+    <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21">
+        <v>44526</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="24">
+        <v>44526</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="32">
+        <v>44526</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="138">
+        <v>0</v>
+      </c>
+      <c r="N23" s="30">
+        <v>0</v>
+      </c>
+      <c r="P23" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="26"/>
+    </row>
+    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21">
+        <v>44527</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="24">
+        <v>44527</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="32">
+        <v>44527</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="138">
+        <v>0</v>
+      </c>
+      <c r="N24" s="30">
+        <v>0</v>
+      </c>
+      <c r="P24" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="26"/>
+    </row>
+    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21">
+        <v>44528</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="24">
+        <v>44528</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="32">
+        <v>44528</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="138">
+        <v>0</v>
+      </c>
+      <c r="N25" s="30">
+        <v>0</v>
+      </c>
+      <c r="P25" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="26"/>
+      <c r="S25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21">
+        <v>44529</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="24">
+        <v>44529</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="32">
+        <v>44529</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="138">
+        <v>0</v>
+      </c>
+      <c r="N26" s="30">
+        <v>0</v>
+      </c>
+      <c r="P26" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="51"/>
+    </row>
+    <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21">
+        <v>44530</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="24">
+        <v>44530</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="32">
+        <v>44530</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="138">
+        <v>0</v>
+      </c>
+      <c r="N27" s="30">
+        <v>0</v>
+      </c>
+      <c r="P27" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="26"/>
+    </row>
+    <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21">
+        <v>44531</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="24">
+        <v>44531</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="32">
+        <v>44531</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="138">
+        <v>0</v>
+      </c>
+      <c r="N28" s="30">
+        <v>0</v>
+      </c>
+      <c r="P28" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="26"/>
+    </row>
+    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21">
+        <v>44532</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="24">
+        <v>44532</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="32">
+        <v>44532</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="138">
+        <v>0</v>
+      </c>
+      <c r="N29" s="30">
+        <v>0</v>
+      </c>
+      <c r="P29" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21">
+        <v>44533</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="24">
+        <v>44533</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="32">
+        <v>44533</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="138">
+        <v>0</v>
+      </c>
+      <c r="N30" s="30">
+        <v>0</v>
+      </c>
+      <c r="P30" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="26"/>
+    </row>
+    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21">
+        <v>44534</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="24">
+        <v>44534</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="32">
+        <v>44534</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="138">
+        <v>0</v>
+      </c>
+      <c r="N31" s="30">
+        <v>0</v>
+      </c>
+      <c r="P31" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="26"/>
+    </row>
+    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21">
+        <v>44535</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="24">
+        <v>44535</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="32">
+        <v>44535</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="138">
+        <v>0</v>
+      </c>
+      <c r="N32" s="30">
+        <v>0</v>
+      </c>
+      <c r="P32" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="26"/>
+    </row>
+    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="138">
+        <v>0</v>
+      </c>
+      <c r="N33" s="30">
+        <v>0</v>
+      </c>
+      <c r="P33" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="26"/>
+    </row>
+    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="138">
+        <v>0</v>
+      </c>
+      <c r="N34" s="30">
+        <v>0</v>
+      </c>
+      <c r="P34" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="26"/>
+    </row>
+    <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="138">
+        <v>0</v>
+      </c>
+      <c r="N35" s="30">
+        <v>0</v>
+      </c>
+      <c r="P35" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="26"/>
+    </row>
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="138">
+        <v>0</v>
+      </c>
+      <c r="N36" s="30">
+        <v>0</v>
+      </c>
+      <c r="P36" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="26"/>
+    </row>
+    <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="184"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="138">
+        <v>0</v>
+      </c>
+      <c r="N37" s="30">
+        <v>0</v>
+      </c>
+      <c r="P37" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="138">
+        <v>0</v>
+      </c>
+      <c r="N38" s="30">
+        <v>0</v>
+      </c>
+      <c r="P38" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="218"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="138">
+        <v>0</v>
+      </c>
+      <c r="N39" s="30">
+        <v>0</v>
+      </c>
+      <c r="P39" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="226">
+        <f>SUM(M5:M39)</f>
+        <v>94358</v>
+      </c>
+      <c r="N40" s="228">
+        <f>SUM(N5:N39)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="83">
+        <f>SUM(P5:P39)</f>
+        <v>97625</v>
+      </c>
+      <c r="Q40" s="222">
+        <f>SUM(Q5:Q38)</f>
+        <v>7994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="227"/>
+      <c r="N41" s="229"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="199"/>
+      <c r="N42" s="198"/>
+      <c r="P42" s="83"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="199"/>
+      <c r="N43" s="198"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="197"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="199"/>
+      <c r="N44" s="198"/>
+      <c r="P44" s="83"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="194"/>
+      <c r="E45" s="195"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="197"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="199"/>
+      <c r="N45" s="198"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="197"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="199"/>
+      <c r="N46" s="198"/>
+      <c r="P46" s="83"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="194"/>
+      <c r="E47" s="195"/>
+      <c r="F47" s="196"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="197"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="199"/>
+      <c r="N47" s="198"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="194"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="196"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="197"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="199"/>
+      <c r="N48" s="198"/>
+      <c r="P48" s="83"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="194"/>
+      <c r="E49" s="195"/>
+      <c r="F49" s="196"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="197"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="199"/>
+      <c r="N49" s="198"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="22">
+        <v>0</v>
+      </c>
+      <c r="D50" s="89"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="84"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="200"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="30"/>
+      <c r="P50" s="83"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="93">
+        <f>SUM(C5:C50)</f>
+        <v>2720</v>
+      </c>
+      <c r="D51" s="94"/>
+      <c r="E51" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="96">
+        <f>SUM(F5:F50)</f>
+        <v>89631</v>
+      </c>
+      <c r="G51" s="94"/>
+      <c r="H51" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="98">
+        <f>SUM(I5:I50)</f>
+        <v>547</v>
+      </c>
+      <c r="J51" s="99"/>
+      <c r="K51" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="101">
+        <f>SUM(L5:L50)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="102"/>
+      <c r="N51" s="102"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="104"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="3"/>
+      <c r="H53" s="250" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="251"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="252">
+        <f>I51+L51</f>
+        <v>547</v>
+      </c>
+      <c r="L53" s="253"/>
+      <c r="M53" s="241">
+        <f>N40+M40</f>
+        <v>94358</v>
+      </c>
+      <c r="N53" s="242"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="254" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="254"/>
+      <c r="F54" s="107">
+        <f>F51-K53-C51</f>
+        <v>86364</v>
+      </c>
+      <c r="I54" s="108"/>
+      <c r="J54" s="109"/>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D55" s="255" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="255"/>
+      <c r="F55" s="102">
+        <v>0</v>
+      </c>
+      <c r="I55" s="256" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="257"/>
+      <c r="K55" s="258">
+        <f>F57+F58+F59</f>
+        <v>86364</v>
+      </c>
+      <c r="L55" s="259"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="110"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="111">
+        <v>0</v>
+      </c>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
+      <c r="K56" s="114"/>
+      <c r="L56" s="115"/>
+    </row>
+    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="102">
+        <f>SUM(F54:F56)</f>
+        <v>86364</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="117"/>
+      <c r="K57" s="243">
+        <f>-C4</f>
+        <v>-192529.4</v>
+      </c>
+      <c r="L57" s="244"/>
+    </row>
+    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="120"/>
+      <c r="D59" s="245" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="246"/>
+      <c r="F59" s="121">
+        <v>0</v>
+      </c>
+      <c r="I59" s="247" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="248"/>
+      <c r="K59" s="249">
+        <f>K55+K57</f>
+        <v>-106165.4</v>
+      </c>
+      <c r="L59" s="249"/>
+    </row>
+    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C60" s="122"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="125"/>
+      <c r="J60" s="126"/>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="192"/>
+      <c r="J61" s="192"/>
+      <c r="K61" s="193"/>
+      <c r="L61" s="193"/>
+    </row>
+    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="127"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="83"/>
+      <c r="I62" s="192"/>
+      <c r="J62" s="192"/>
+      <c r="K62" s="193"/>
+      <c r="L62" s="193"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="104"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="127"/>
+      <c r="C63" s="130"/>
+      <c r="E63" s="83"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="104"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="127"/>
+      <c r="C64" s="130"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="131"/>
+      <c r="L64" s="132"/>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="127"/>
+      <c r="C65" s="130"/>
+      <c r="E65" s="83"/>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="127"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="133"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="134"/>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D67" s="133"/>
+      <c r="E67" s="135"/>
+      <c r="F67" s="83"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="133"/>
+      <c r="E68" s="135"/>
+      <c r="F68" s="83"/>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="133"/>
+      <c r="E69" s="135"/>
+      <c r="F69" s="83"/>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D70" s="133"/>
+      <c r="E70" s="135"/>
+      <c r="F70" s="83"/>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D71" s="133"/>
+      <c r="E71" s="135"/>
+      <c r="F71" s="83"/>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D72" s="133"/>
+      <c r="E72" s="135"/>
+      <c r="F72" s="83"/>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D73" s="133"/>
+      <c r="E73" s="135"/>
+      <c r="F73" s="83"/>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D74" s="133"/>
+      <c r="E74" s="135"/>
+      <c r="F74" s="83"/>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D75" s="133"/>
+      <c r="E75" s="135"/>
+      <c r="F75" s="83"/>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D76" s="133"/>
+      <c r="E76" s="135"/>
+      <c r="F76" s="83"/>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D77" s="133"/>
+      <c r="E77" s="135"/>
+      <c r="F77" s="83"/>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D78" s="133"/>
+      <c r="E78" s="135"/>
+      <c r="F78" s="83"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D79" s="133"/>
+      <c r="E79" s="133"/>
+      <c r="F79" s="134"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D80" s="133"/>
+      <c r="E80" s="133"/>
+      <c r="F80" s="134"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="133"/>
+      <c r="E81" s="133"/>
+      <c r="F81" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A23:G54"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="163"/>
-      <c r="B45" s="263" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="264"/>
-      <c r="D45" s="264"/>
-      <c r="E45" s="265"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="168">
-        <v>44504</v>
-      </c>
-      <c r="B46" s="169" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" s="170">
-        <v>9981.4500000000007</v>
-      </c>
-      <c r="D46" s="171" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="172" t="s">
-        <v>204</v>
-      </c>
-      <c r="F46" s="107">
-        <v>2781</v>
-      </c>
-      <c r="G46" s="209"/>
-    </row>
-    <row r="47" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="168"/>
-      <c r="B47" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" s="170">
-        <v>0</v>
-      </c>
-      <c r="D47" s="173" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="172" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="107">
-        <v>0</v>
-      </c>
-      <c r="G47" s="208"/>
-    </row>
-    <row r="48" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="168"/>
-      <c r="B48" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="C48" s="170">
-        <v>0</v>
-      </c>
-      <c r="D48" s="173" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="172" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="168"/>
-      <c r="B49" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" s="170">
-        <v>0</v>
-      </c>
-      <c r="D49" s="173" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="172" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="164"/>
-      <c r="B50" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="C50" s="170">
-        <v>0</v>
-      </c>
-      <c r="D50" s="165" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="172" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="164"/>
-      <c r="B51" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" s="170">
-        <v>0</v>
-      </c>
-      <c r="D51" s="165" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="172" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="164"/>
-      <c r="B52" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="C52" s="170">
-        <v>0</v>
-      </c>
-      <c r="D52" s="165" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="172" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="166"/>
-      <c r="B53" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="170">
-        <v>0</v>
-      </c>
-      <c r="D53" s="167" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="172" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="155" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="158" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="201" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="202" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="202" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="141"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="143">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="141"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="145">
+        <f>F3+C4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="146"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="141"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="145">
+        <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="141"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="141"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="141"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="141"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="141"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="146"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="141"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="144"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="144"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="144"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="144"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="144"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="144"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="144"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="144"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="144"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="144"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="144"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="146"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="144"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="144"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="144"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="144"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="144"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="144"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="144"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="144"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="146"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="144"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="144"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="144"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="144"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="144"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="144"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="144"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="144"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="144"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="144"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="144"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="144"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="144"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="144"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="144"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="144"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="144"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="144"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="144"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="144"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="144"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="144"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="144"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="141"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="141"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="141"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="144"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="144"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="144"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="141"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="141"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="141"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="188"/>
+      <c r="B63" s="185"/>
+      <c r="C63" s="186"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="188"/>
+      <c r="B64" s="185"/>
+      <c r="C64" s="186"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="188"/>
+      <c r="B65" s="185"/>
+      <c r="C65" s="186"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="188"/>
+      <c r="B66" s="185"/>
+      <c r="C66" s="186"/>
+      <c r="D66" s="144"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="188"/>
+      <c r="B67" s="185"/>
+      <c r="C67" s="186"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="188"/>
+      <c r="B68" s="185"/>
+      <c r="C68" s="186"/>
+      <c r="D68" s="144"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="188"/>
+      <c r="B69" s="185"/>
+      <c r="C69" s="186"/>
+      <c r="D69" s="144"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="145">
+        <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="188"/>
+      <c r="B70" s="185"/>
+      <c r="C70" s="186"/>
+      <c r="D70" s="144"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="188"/>
+      <c r="B71" s="185"/>
+      <c r="C71" s="186"/>
+      <c r="D71" s="144"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="188"/>
+      <c r="B72" s="185"/>
+      <c r="C72" s="186"/>
+      <c r="D72" s="144"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="188"/>
+      <c r="B73" s="185"/>
+      <c r="C73" s="186"/>
+      <c r="D73" s="144"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="188"/>
+      <c r="B74" s="185"/>
+      <c r="C74" s="186"/>
+      <c r="D74" s="144"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="188"/>
+      <c r="B75" s="185"/>
+      <c r="C75" s="186"/>
+      <c r="D75" s="144"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="188"/>
+      <c r="B76" s="185"/>
+      <c r="C76" s="186"/>
+      <c r="D76" s="144"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="188"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="186"/>
+      <c r="D77" s="144"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="188"/>
+      <c r="B78" s="185"/>
+      <c r="C78" s="186"/>
+      <c r="D78" s="144"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="188"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="144"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="188"/>
+      <c r="B80" s="185"/>
+      <c r="C80" s="186"/>
+      <c r="D80" s="144"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="189"/>
+      <c r="B81" s="190"/>
+      <c r="C81" s="191"/>
+      <c r="D81" s="147"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="189"/>
+      <c r="B82" s="190"/>
+      <c r="C82" s="191"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="189"/>
+      <c r="B83" s="190"/>
+      <c r="C83" s="191"/>
+      <c r="D83" s="147"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="189"/>
+      <c r="B84" s="190"/>
+      <c r="C84" s="191"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="189"/>
+      <c r="B85" s="190"/>
+      <c r="C85" s="191"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="189"/>
+      <c r="B86" s="190"/>
+      <c r="C86" s="191"/>
+      <c r="D86" s="147"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="188"/>
+      <c r="B87" s="185"/>
+      <c r="C87" s="186"/>
+      <c r="D87" s="148"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="188"/>
+      <c r="B88" s="185"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="148"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="188"/>
+      <c r="B89" s="185"/>
+      <c r="C89" s="186"/>
+      <c r="D89" s="148"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="188"/>
+      <c r="B90" s="185"/>
+      <c r="C90" s="186"/>
+      <c r="D90" s="148"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="188"/>
+      <c r="B91" s="185"/>
+      <c r="C91" s="186"/>
+      <c r="D91" s="148"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="188"/>
+      <c r="B92" s="185"/>
+      <c r="C92" s="186"/>
+      <c r="D92" s="148"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="188"/>
+      <c r="B93" s="185"/>
+      <c r="C93" s="186"/>
+      <c r="D93" s="148"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="188"/>
+      <c r="B94" s="185"/>
+      <c r="C94" s="186"/>
+      <c r="D94" s="148"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="188"/>
+      <c r="B95" s="185"/>
+      <c r="C95" s="186"/>
+      <c r="D95" s="148"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="188"/>
+      <c r="B96" s="185"/>
+      <c r="C96" s="186"/>
+      <c r="D96" s="148"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="149"/>
+      <c r="B97" s="150"/>
+      <c r="C97" s="151">
+        <v>0</v>
+      </c>
+      <c r="D97" s="152"/>
+      <c r="E97" s="151"/>
+      <c r="F97" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B98" s="104"/>
+      <c r="C98" s="3">
+        <f>SUM(C3:C97)</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="103"/>
+      <c r="E98" s="3">
+        <f>SUM(E3:E97)</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="153">
+        <f>F97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="104"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="103"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="104"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="103"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+      <c r="B101" s="20"/>
+      <c r="D101" s="20"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102" s="20"/>
+      <c r="D102" s="20"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="B103" s="20"/>
+      <c r="D103" s="20"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="B104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="B106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="B109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="B111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113"/>
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="B116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116"/>
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="20"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="20"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="20"/>
+      <c r="D130" s="20"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="20"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="20"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="20"/>
+    </row>
+    <row r="134" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C134" s="154"/>
+    </row>
   </sheetData>
-  <sortState ref="A46:F47">
-    <sortCondition ref="B46:B47"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="B45:E45"/>
-  </mergeCells>
-  <pageMargins left="0.39" right="0.13" top="0.75" bottom="0.27" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE  HERRADURA  NOVIEMBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE  HERRADURA  NOVIEMBRE   2021.xlsx
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="279">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1069,6 +1069,39 @@
   </si>
   <si>
     <t>LONGANIZA</t>
+  </si>
+  <si>
+    <t>QUESO</t>
+  </si>
+  <si>
+    <t>TOCINO-JAMON-CONDIMENTOS-QUESO-PAN ARABE-RETAZO-</t>
+  </si>
+  <si>
+    <t>CEBOLLA--PEREJIL</t>
+  </si>
+  <si>
+    <t>NOMINA # 46 y vac</t>
+  </si>
+  <si>
+    <t>PAPAS-SANCHICHA-CECINA</t>
+  </si>
+  <si>
+    <t>SALAMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOCINO   </t>
+  </si>
+  <si>
+    <t>ARABE</t>
+  </si>
+  <si>
+    <t>NOMINA # 47</t>
+  </si>
+  <si>
+    <t>RETAZO--TOCINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEBOLLA   </t>
   </si>
 </sst>
 </file>
@@ -2656,57 +2689,6 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2762,6 +2744,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4803,23 +4836,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="230"/>
-      <c r="C1" s="239" t="s">
+      <c r="B1" s="249"/>
+      <c r="C1" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -4829,17 +4862,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="233"/>
+      <c r="B3" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="252"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="234" t="s">
+      <c r="H3" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="234"/>
+      <c r="I3" s="253"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -4855,14 +4888,14 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="H4" s="237" t="s">
+      <c r="F4" s="255"/>
+      <c r="H4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="238"/>
+      <c r="I4" s="257"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4872,10 +4905,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="224" t="s">
+      <c r="P4" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="225"/>
+      <c r="Q4" s="244"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -6370,11 +6403,11 @@
       <c r="L39" s="69">
         <v>454.62</v>
       </c>
-      <c r="M39" s="226">
+      <c r="M39" s="245">
         <f>SUM(M5:M38)</f>
         <v>1393675.5</v>
       </c>
-      <c r="N39" s="228">
+      <c r="N39" s="247">
         <f>SUM(N5:N38)</f>
         <v>28399.97</v>
       </c>
@@ -6406,8 +6439,8 @@
       <c r="L40" s="69">
         <v>1195.67</v>
       </c>
-      <c r="M40" s="227"/>
-      <c r="N40" s="229"/>
+      <c r="M40" s="246"/>
+      <c r="N40" s="248"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -6640,29 +6673,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="250" t="s">
+      <c r="H52" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="251"/>
+      <c r="I52" s="234"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="252">
+      <c r="K52" s="235">
         <f>I50+L50</f>
         <v>80916.84</v>
       </c>
-      <c r="L52" s="253"/>
-      <c r="M52" s="241">
+      <c r="L52" s="236"/>
+      <c r="M52" s="224">
         <f>N39+M39</f>
         <v>1422075.47</v>
       </c>
-      <c r="N52" s="242"/>
+      <c r="N52" s="225"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="254" t="s">
+      <c r="D53" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="254"/>
+      <c r="E53" s="237"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1396181.44</v>
@@ -6673,22 +6706,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="255" t="s">
+      <c r="D54" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="255"/>
+      <c r="E54" s="238"/>
       <c r="F54" s="102">
         <v>-1523111</v>
       </c>
-      <c r="I54" s="256" t="s">
+      <c r="I54" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="257"/>
-      <c r="K54" s="258">
+      <c r="J54" s="240"/>
+      <c r="K54" s="241">
         <f>F56+F57+F58</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L54" s="259"/>
+      <c r="L54" s="242"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6719,10 +6752,10 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="243">
-        <v>0</v>
-      </c>
-      <c r="L56" s="244"/>
+      <c r="K56" s="226">
+        <v>0</v>
+      </c>
+      <c r="L56" s="227"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -6739,22 +6772,22 @@
       <c r="C58" s="120">
         <v>44444</v>
       </c>
-      <c r="D58" s="245" t="s">
+      <c r="D58" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="246"/>
+      <c r="E58" s="229"/>
       <c r="F58" s="121">
         <v>136234.76999999999</v>
       </c>
-      <c r="I58" s="247" t="s">
+      <c r="I58" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="248"/>
-      <c r="K58" s="249">
+      <c r="J58" s="231"/>
+      <c r="K58" s="232">
         <f>K54+K56</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L58" s="249"/>
+      <c r="L58" s="232"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -6898,6 +6931,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C1:M1"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:E58"/>
@@ -6909,15 +6951,6 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8829,23 +8862,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="230"/>
-      <c r="C1" s="239" t="s">
+      <c r="B1" s="249"/>
+      <c r="C1" s="258" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -8855,17 +8888,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="233"/>
+      <c r="B3" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="252"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="234" t="s">
+      <c r="H3" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="234"/>
+      <c r="I3" s="253"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -8881,14 +8914,14 @@
       <c r="D4" s="16">
         <v>44444</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="H4" s="237" t="s">
+      <c r="F4" s="255"/>
+      <c r="H4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="238"/>
+      <c r="I4" s="257"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -8898,10 +8931,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="224" t="s">
+      <c r="P4" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="225"/>
+      <c r="Q4" s="244"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -10391,11 +10424,11 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="226">
+      <c r="M39" s="245">
         <f>SUM(M5:M38)</f>
         <v>1464441</v>
       </c>
-      <c r="N39" s="228">
+      <c r="N39" s="247">
         <f>SUM(N5:N38)</f>
         <v>53494</v>
       </c>
@@ -10421,8 +10454,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="227"/>
-      <c r="N40" s="229"/>
+      <c r="M40" s="246"/>
+      <c r="N40" s="248"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10637,29 +10670,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="250" t="s">
+      <c r="H52" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="251"/>
+      <c r="I52" s="234"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="252">
+      <c r="K52" s="235">
         <f>I50+L50</f>
         <v>69642.26999999999</v>
       </c>
-      <c r="L52" s="253"/>
-      <c r="M52" s="241">
+      <c r="L52" s="236"/>
+      <c r="M52" s="224">
         <f>N39+M39</f>
         <v>1517935</v>
       </c>
-      <c r="N52" s="242"/>
+      <c r="N52" s="225"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="254" t="s">
+      <c r="D53" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="254"/>
+      <c r="E53" s="237"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1505921.23</v>
@@ -10670,22 +10703,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="255" t="s">
+      <c r="D54" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="255"/>
+      <c r="E54" s="238"/>
       <c r="F54" s="102">
         <v>-1424333.95</v>
       </c>
-      <c r="I54" s="256" t="s">
+      <c r="I54" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="257"/>
-      <c r="K54" s="258">
+      <c r="J54" s="240"/>
+      <c r="K54" s="241">
         <f>F56+F57+F58</f>
         <v>222140.17000000004</v>
       </c>
-      <c r="L54" s="259"/>
+      <c r="L54" s="242"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10716,11 +10749,11 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="243">
+      <c r="K56" s="226">
         <f>-C4</f>
         <v>-136234.76999999999</v>
       </c>
-      <c r="L56" s="244"/>
+      <c r="L56" s="227"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -10737,22 +10770,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="245" t="s">
+      <c r="D58" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="246"/>
+      <c r="E58" s="229"/>
       <c r="F58" s="121">
         <v>134848.89000000001</v>
       </c>
-      <c r="I58" s="247" t="s">
+      <c r="I58" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="248"/>
-      <c r="K58" s="249">
+      <c r="J58" s="231"/>
+      <c r="K58" s="232">
         <f>K54+K56</f>
         <v>85905.400000000052</v>
       </c>
-      <c r="L58" s="249"/>
+      <c r="L58" s="232"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -10896,6 +10929,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10910,12 +10949,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12539,23 +12572,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="230"/>
-      <c r="C1" s="239" t="s">
+      <c r="B1" s="249"/>
+      <c r="C1" s="258" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -12565,17 +12598,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="233"/>
+      <c r="B3" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="252"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="234" t="s">
+      <c r="H3" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="234"/>
+      <c r="I3" s="253"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -12591,14 +12624,14 @@
       <c r="D4" s="16">
         <v>44472</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="H4" s="237" t="s">
+      <c r="F4" s="255"/>
+      <c r="H4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="238"/>
+      <c r="I4" s="257"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12608,10 +12641,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="224" t="s">
+      <c r="P4" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="225"/>
+      <c r="Q4" s="244"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -14186,11 +14219,11 @@
       <c r="L40" s="69">
         <v>1195.68</v>
       </c>
-      <c r="M40" s="226">
+      <c r="M40" s="245">
         <f>SUM(M5:M39)</f>
         <v>1982944.5</v>
       </c>
-      <c r="N40" s="228">
+      <c r="N40" s="247">
         <f>SUM(N5:N39)</f>
         <v>62048</v>
       </c>
@@ -14222,8 +14255,8 @@
       <c r="L41" s="69">
         <v>942.84</v>
       </c>
-      <c r="M41" s="227"/>
-      <c r="N41" s="229"/>
+      <c r="M41" s="246"/>
+      <c r="N41" s="248"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -14456,29 +14489,29 @@
       <c r="A53" s="104"/>
       <c r="B53" s="105"/>
       <c r="C53" s="3"/>
-      <c r="H53" s="250" t="s">
+      <c r="H53" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="251"/>
+      <c r="I53" s="234"/>
       <c r="J53" s="106"/>
-      <c r="K53" s="252">
+      <c r="K53" s="235">
         <f>I51+L51</f>
         <v>104139.16999999998</v>
       </c>
-      <c r="L53" s="253"/>
-      <c r="M53" s="241">
+      <c r="L53" s="236"/>
+      <c r="M53" s="224">
         <f>N40+M40</f>
         <v>2044992.5</v>
       </c>
-      <c r="N53" s="242"/>
+      <c r="N53" s="225"/>
       <c r="P53" s="83"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="254" t="s">
+      <c r="D54" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="254"/>
+      <c r="E54" s="237"/>
       <c r="F54" s="107">
         <f>F51-K53-C51</f>
         <v>2004605.33</v>
@@ -14489,22 +14522,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="255" t="s">
+      <c r="D55" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="255"/>
+      <c r="E55" s="238"/>
       <c r="F55" s="102">
         <v>-2026393.17</v>
       </c>
-      <c r="I55" s="256" t="s">
+      <c r="I55" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="257"/>
-      <c r="K55" s="258">
+      <c r="J55" s="240"/>
+      <c r="K55" s="241">
         <f>F57+F58+F59</f>
         <v>178711.56000000014</v>
       </c>
-      <c r="L55" s="259"/>
+      <c r="L55" s="242"/>
       <c r="P55" s="83"/>
       <c r="Q55" s="9"/>
     </row>
@@ -14535,11 +14568,11 @@
         <v>13</v>
       </c>
       <c r="J57" s="117"/>
-      <c r="K57" s="243">
+      <c r="K57" s="226">
         <f>-C4</f>
         <v>-134848.89000000001</v>
       </c>
-      <c r="L57" s="244"/>
+      <c r="L57" s="227"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="118" t="s">
@@ -14556,22 +14589,22 @@
       <c r="C59" s="120">
         <v>44507</v>
       </c>
-      <c r="D59" s="245" t="s">
+      <c r="D59" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="246"/>
+      <c r="E59" s="229"/>
       <c r="F59" s="121">
         <v>192529.4</v>
       </c>
-      <c r="I59" s="247" t="s">
+      <c r="I59" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="248"/>
-      <c r="K59" s="249">
+      <c r="J59" s="231"/>
+      <c r="K59" s="232">
         <f>K55+K57</f>
         <v>43862.670000000129</v>
       </c>
-      <c r="L59" s="249"/>
+      <c r="L59" s="232"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="122"/>
@@ -14715,6 +14748,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
@@ -14729,12 +14768,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16429,8 +16462,8 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16452,23 +16485,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="230"/>
-      <c r="C1" s="239" t="s">
+      <c r="B1" s="249"/>
+      <c r="C1" s="258" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -16478,17 +16511,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="233"/>
+      <c r="B3" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="252"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="234" t="s">
+      <c r="H3" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="234"/>
+      <c r="I3" s="253"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -16504,14 +16537,14 @@
       <c r="D4" s="16">
         <v>44507</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="H4" s="237" t="s">
+      <c r="F4" s="255"/>
+      <c r="H4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="238"/>
+      <c r="I4" s="257"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -16521,10 +16554,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="224" t="s">
+      <c r="P4" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="225"/>
+      <c r="Q4" s="244"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -16619,34 +16652,43 @@
       <c r="B7" s="21">
         <v>44510</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="22">
+        <v>80</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>268</v>
+      </c>
       <c r="E7" s="24">
         <v>44510</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="25">
+        <v>28829</v>
+      </c>
       <c r="G7" s="26"/>
       <c r="H7" s="32">
         <v>44510</v>
       </c>
-      <c r="I7" s="28"/>
+      <c r="I7" s="28">
+        <v>33</v>
+      </c>
       <c r="J7" s="33"/>
       <c r="K7" s="37"/>
       <c r="L7" s="35"/>
       <c r="M7" s="138">
-        <v>0</v>
+        <f>22800+5000</f>
+        <v>27800</v>
       </c>
       <c r="N7" s="30">
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="O7" s="26"/>
       <c r="P7" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28830</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="26"/>
     </row>
@@ -16655,22 +16697,30 @@
       <c r="B8" s="21">
         <v>44511</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="22">
+        <v>19923</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>269</v>
+      </c>
       <c r="E8" s="24">
         <v>44511</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="25">
+        <v>49002</v>
+      </c>
       <c r="G8" s="26"/>
       <c r="H8" s="32">
         <v>44511</v>
       </c>
-      <c r="I8" s="28"/>
+      <c r="I8" s="28">
+        <v>11</v>
+      </c>
       <c r="J8" s="39"/>
       <c r="K8" s="40"/>
       <c r="L8" s="35"/>
       <c r="M8" s="138">
-        <v>0</v>
+        <v>29070</v>
       </c>
       <c r="N8" s="30">
         <v>0</v>
@@ -16678,11 +16728,11 @@
       <c r="O8" s="26"/>
       <c r="P8" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49004</v>
       </c>
       <c r="Q8" s="76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" s="51"/>
     </row>
@@ -16691,34 +16741,43 @@
       <c r="B9" s="21">
         <v>44512</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="22">
+        <v>3480</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>200</v>
+      </c>
       <c r="E9" s="24">
         <v>44512</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="25">
+        <v>78448</v>
+      </c>
       <c r="G9" s="26"/>
       <c r="H9" s="32">
         <v>44512</v>
       </c>
-      <c r="I9" s="28"/>
+      <c r="I9" s="28">
+        <v>1659</v>
+      </c>
       <c r="J9" s="33"/>
       <c r="K9" s="41"/>
       <c r="L9" s="35"/>
       <c r="M9" s="138">
-        <v>0</v>
+        <f>25000+47260</f>
+        <v>72260</v>
       </c>
       <c r="N9" s="30">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="O9" s="26"/>
       <c r="P9" s="83">
         <f>N9+M9+L9+I9+C9</f>
-        <v>0</v>
+        <v>78449</v>
       </c>
       <c r="Q9" s="9">
         <f>P9-F9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="26"/>
     </row>
@@ -16727,34 +16786,50 @@
       <c r="B10" s="21">
         <v>44513</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="22">
+        <v>19</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>270</v>
+      </c>
       <c r="E10" s="24">
         <v>44513</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="25">
+        <v>77465</v>
+      </c>
       <c r="G10" s="26"/>
       <c r="H10" s="32">
         <v>44513</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
+      <c r="I10" s="28">
+        <v>129</v>
+      </c>
+      <c r="J10" s="33">
+        <v>44513</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="43">
+        <f>10814.29+1285.71</f>
+        <v>12100</v>
+      </c>
       <c r="M10" s="138">
-        <v>0</v>
+        <f>30000+29340</f>
+        <v>59340</v>
       </c>
       <c r="N10" s="30">
-        <v>0</v>
+        <v>5875</v>
       </c>
       <c r="O10" s="26"/>
       <c r="P10" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77463</v>
+      </c>
+      <c r="Q10" s="217">
+        <f t="shared" si="1"/>
+        <v>-2</v>
       </c>
       <c r="R10" s="51"/>
     </row>
@@ -16763,34 +16838,43 @@
       <c r="B11" s="21">
         <v>44514</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="22">
+        <v>962</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>272</v>
+      </c>
       <c r="E11" s="24">
         <v>44514</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="25">
+        <v>94524</v>
+      </c>
       <c r="G11" s="26"/>
       <c r="H11" s="32">
         <v>44514</v>
       </c>
-      <c r="I11" s="28"/>
+      <c r="I11" s="28">
+        <v>3010</v>
+      </c>
       <c r="J11" s="39"/>
       <c r="K11" s="44"/>
       <c r="L11" s="35"/>
       <c r="M11" s="138">
-        <v>0</v>
+        <f>75000+13050</f>
+        <v>88050</v>
       </c>
       <c r="N11" s="30">
-        <v>0</v>
+        <v>2494</v>
       </c>
       <c r="O11" s="26"/>
       <c r="P11" s="83">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94516</v>
+      </c>
+      <c r="Q11" s="217">
+        <f t="shared" si="1"/>
+        <v>-8</v>
       </c>
       <c r="R11" s="26"/>
     </row>
@@ -16799,30 +16883,37 @@
       <c r="B12" s="21">
         <v>44515</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
       <c r="D12" s="31"/>
       <c r="E12" s="24">
         <v>44515</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="25">
+        <v>60081</v>
+      </c>
       <c r="G12" s="26"/>
       <c r="H12" s="32">
         <v>44515</v>
       </c>
-      <c r="I12" s="28"/>
+      <c r="I12" s="28">
+        <v>88</v>
+      </c>
       <c r="J12" s="33"/>
       <c r="K12" s="45"/>
       <c r="L12" s="35"/>
       <c r="M12" s="138">
-        <v>0</v>
+        <f>30000+29410</f>
+        <v>59410</v>
       </c>
       <c r="N12" s="30">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O12" s="26"/>
       <c r="P12" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60081</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" si="1"/>
@@ -16835,34 +16926,43 @@
       <c r="B13" s="21">
         <v>44516</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="22">
+        <v>1738</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>273</v>
+      </c>
       <c r="E13" s="24">
         <v>44516</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25">
+        <v>47537</v>
+      </c>
       <c r="G13" s="26"/>
       <c r="H13" s="32">
         <v>44516</v>
       </c>
-      <c r="I13" s="28"/>
+      <c r="I13" s="28">
+        <v>15</v>
+      </c>
       <c r="J13" s="33"/>
       <c r="K13" s="46"/>
       <c r="L13" s="35"/>
       <c r="M13" s="138">
-        <v>0</v>
+        <f>20000+25440</f>
+        <v>45440</v>
       </c>
       <c r="N13" s="30">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="O13" s="26"/>
       <c r="P13" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47541</v>
       </c>
       <c r="Q13" s="136">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R13" s="204"/>
     </row>
@@ -16871,34 +16971,42 @@
       <c r="B14" s="21">
         <v>44517</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="36"/>
+      <c r="C14" s="22">
+        <v>4190</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>200</v>
+      </c>
       <c r="E14" s="24">
         <v>44517</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25">
+        <v>51862</v>
+      </c>
       <c r="G14" s="26"/>
       <c r="H14" s="32">
         <v>44517</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="28">
+        <v>40</v>
+      </c>
       <c r="J14" s="33"/>
       <c r="K14" s="40"/>
       <c r="L14" s="35"/>
       <c r="M14" s="138">
-        <v>0</v>
+        <v>45290</v>
       </c>
       <c r="N14" s="30">
-        <v>0</v>
+        <v>2345</v>
       </c>
       <c r="O14" s="26"/>
       <c r="P14" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51865</v>
       </c>
       <c r="Q14" s="136">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R14" s="204"/>
     </row>
@@ -16907,33 +17015,40 @@
       <c r="B15" s="21">
         <v>44518</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
       <c r="D15" s="36"/>
       <c r="E15" s="24">
         <v>44518</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25">
+        <v>68774</v>
+      </c>
       <c r="G15" s="26"/>
       <c r="H15" s="32">
         <v>44518</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" s="28">
+        <v>15</v>
+      </c>
       <c r="J15" s="33"/>
       <c r="K15" s="40"/>
       <c r="L15" s="35"/>
       <c r="M15" s="138">
-        <v>0</v>
+        <f>500+43260+25000</f>
+        <v>68760</v>
       </c>
       <c r="N15" s="30">
         <v>0</v>
       </c>
       <c r="P15" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="217">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68775</v>
+      </c>
+      <c r="Q15" s="136">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="R15" s="26"/>
     </row>
@@ -16942,33 +17057,42 @@
       <c r="B16" s="21">
         <v>44519</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="22">
+        <v>752</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>274</v>
+      </c>
       <c r="E16" s="24">
         <v>44519</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="25">
+        <v>71014</v>
+      </c>
       <c r="G16" s="26"/>
       <c r="H16" s="32">
         <v>44519</v>
       </c>
-      <c r="I16" s="28"/>
+      <c r="I16" s="28">
+        <v>40</v>
+      </c>
       <c r="J16" s="33"/>
       <c r="K16" s="40"/>
       <c r="L16" s="9"/>
       <c r="M16" s="138">
-        <v>0</v>
+        <f>30000+39840</f>
+        <v>69840</v>
       </c>
       <c r="N16" s="30">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="P16" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71017</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16" s="26"/>
     </row>
@@ -16977,33 +17101,48 @@
       <c r="B17" s="21">
         <v>44520</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="22">
+        <v>23</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>275</v>
+      </c>
       <c r="E17" s="24">
         <v>44520</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="25">
+        <v>70966</v>
+      </c>
       <c r="G17" s="26"/>
       <c r="H17" s="32">
         <v>44520</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="43"/>
+      <c r="I17" s="28">
+        <v>73</v>
+      </c>
+      <c r="J17" s="33">
+        <v>44520</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="L17" s="43">
+        <v>13341.34</v>
+      </c>
       <c r="M17" s="138">
-        <v>0</v>
+        <f>30000+22220</f>
+        <v>52220</v>
       </c>
       <c r="N17" s="30">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="P17" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70957.34</v>
+      </c>
+      <c r="Q17" s="217">
+        <f t="shared" si="1"/>
+        <v>-8.6600000000034925</v>
       </c>
       <c r="R17" s="26"/>
     </row>
@@ -17012,33 +17151,42 @@
       <c r="B18" s="21">
         <v>44521</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="22">
+        <v>3983</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>277</v>
+      </c>
       <c r="E18" s="24">
         <v>44521</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="25">
+        <v>152652</v>
+      </c>
       <c r="G18" s="26"/>
       <c r="H18" s="32">
         <v>44521</v>
       </c>
-      <c r="I18" s="28"/>
+      <c r="I18" s="28">
+        <v>0</v>
+      </c>
       <c r="J18" s="33"/>
       <c r="K18" s="47"/>
       <c r="L18" s="35"/>
       <c r="M18" s="138">
-        <v>0</v>
+        <f>70000+60000+17770</f>
+        <v>147770</v>
       </c>
       <c r="N18" s="30">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="P18" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>152656</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R18" s="26"/>
     </row>
@@ -17047,33 +17195,42 @@
       <c r="B19" s="21">
         <v>44522</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="22">
+        <v>14</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>278</v>
+      </c>
       <c r="E19" s="24">
         <v>44522</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="25">
+        <v>47787</v>
+      </c>
       <c r="G19" s="26"/>
       <c r="H19" s="32">
         <v>44522</v>
       </c>
-      <c r="I19" s="28"/>
+      <c r="I19" s="28">
+        <v>45</v>
+      </c>
       <c r="J19" s="33"/>
       <c r="K19" s="48"/>
       <c r="L19" s="49"/>
       <c r="M19" s="138">
-        <v>0</v>
+        <f>25000+22350</f>
+        <v>47350</v>
       </c>
       <c r="N19" s="30">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="P19" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47792</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R19" s="26"/>
     </row>
@@ -17747,21 +17904,21 @@
       <c r="J40" s="67"/>
       <c r="K40" s="82"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="226">
+      <c r="M40" s="245">
         <f>SUM(M5:M39)</f>
-        <v>94358</v>
-      </c>
-      <c r="N40" s="228">
+        <v>906958</v>
+      </c>
+      <c r="N40" s="247">
         <f>SUM(N5:N39)</f>
-        <v>0</v>
+        <v>20583</v>
       </c>
       <c r="P40" s="83">
         <f>SUM(P5:P39)</f>
-        <v>97625</v>
+        <v>996571.34</v>
       </c>
       <c r="Q40" s="222">
         <f>SUM(Q5:Q38)</f>
-        <v>7994</v>
+        <v>7999.3399999999965</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17777,8 +17934,8 @@
       <c r="J41" s="67"/>
       <c r="K41" s="71"/>
       <c r="L41" s="69"/>
-      <c r="M41" s="227"/>
-      <c r="N41" s="229"/>
+      <c r="M41" s="246"/>
+      <c r="N41" s="248"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -17951,7 +18108,7 @@
       </c>
       <c r="C51" s="93">
         <f>SUM(C5:C50)</f>
-        <v>2720</v>
+        <v>37884</v>
       </c>
       <c r="D51" s="94"/>
       <c r="E51" s="95" t="s">
@@ -17959,7 +18116,7 @@
       </c>
       <c r="F51" s="96">
         <f>SUM(F5:F50)</f>
-        <v>89631</v>
+        <v>988572</v>
       </c>
       <c r="G51" s="94"/>
       <c r="H51" s="97" t="s">
@@ -17967,7 +18124,7 @@
       </c>
       <c r="I51" s="98">
         <f>SUM(I5:I50)</f>
-        <v>547</v>
+        <v>5705</v>
       </c>
       <c r="J51" s="99"/>
       <c r="K51" s="100" t="s">
@@ -17975,7 +18132,7 @@
       </c>
       <c r="L51" s="101">
         <f>SUM(L5:L50)</f>
-        <v>0</v>
+        <v>25441.34</v>
       </c>
       <c r="M51" s="102"/>
       <c r="N51" s="102"/>
@@ -17993,32 +18150,32 @@
       <c r="A53" s="104"/>
       <c r="B53" s="105"/>
       <c r="C53" s="3"/>
-      <c r="H53" s="250" t="s">
+      <c r="H53" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="251"/>
+      <c r="I53" s="234"/>
       <c r="J53" s="106"/>
-      <c r="K53" s="252">
+      <c r="K53" s="235">
         <f>I51+L51</f>
-        <v>547</v>
-      </c>
-      <c r="L53" s="253"/>
-      <c r="M53" s="241">
+        <v>31146.34</v>
+      </c>
+      <c r="L53" s="236"/>
+      <c r="M53" s="224">
         <f>N40+M40</f>
-        <v>94358</v>
-      </c>
-      <c r="N53" s="242"/>
+        <v>927541</v>
+      </c>
+      <c r="N53" s="225"/>
       <c r="P53" s="83"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="254" t="s">
+      <c r="D54" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="254"/>
+      <c r="E54" s="237"/>
       <c r="F54" s="107">
         <f>F51-K53-C51</f>
-        <v>86364</v>
+        <v>919541.66</v>
       </c>
       <c r="I54" s="108"/>
       <c r="J54" s="109"/>
@@ -18026,22 +18183,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="255" t="s">
+      <c r="D55" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="255"/>
+      <c r="E55" s="238"/>
       <c r="F55" s="102">
         <v>0</v>
       </c>
-      <c r="I55" s="256" t="s">
+      <c r="I55" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="257"/>
-      <c r="K55" s="258">
+      <c r="J55" s="240"/>
+      <c r="K55" s="241">
         <f>F57+F58+F59</f>
-        <v>86364</v>
-      </c>
-      <c r="L55" s="259"/>
+        <v>919541.66</v>
+      </c>
+      <c r="L55" s="242"/>
       <c r="P55" s="83"/>
       <c r="Q55" s="9"/>
     </row>
@@ -18065,18 +18222,18 @@
       </c>
       <c r="F57" s="102">
         <f>SUM(F54:F56)</f>
-        <v>86364</v>
+        <v>919541.66</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="116" t="s">
         <v>13</v>
       </c>
       <c r="J57" s="117"/>
-      <c r="K57" s="243">
+      <c r="K57" s="226">
         <f>-C4</f>
         <v>-192529.4</v>
       </c>
-      <c r="L57" s="244"/>
+      <c r="L57" s="227"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="118" t="s">
@@ -18091,22 +18248,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="120"/>
-      <c r="D59" s="245" t="s">
+      <c r="D59" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="246"/>
+      <c r="E59" s="229"/>
       <c r="F59" s="121">
         <v>0</v>
       </c>
-      <c r="I59" s="247" t="s">
+      <c r="I59" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="248"/>
-      <c r="K59" s="249">
+      <c r="J59" s="231"/>
+      <c r="K59" s="232">
         <f>K55+K57</f>
-        <v>-106165.4</v>
-      </c>
-      <c r="L59" s="249"/>
+        <v>727012.26</v>
+      </c>
+      <c r="L59" s="232"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="122"/>
@@ -18250,11 +18407,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
@@ -18264,12 +18422,11 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE  HERRADURA  NOVIEMBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE  HERRADURA  NOVIEMBRE   2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="A G O S T O    2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="293">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1102,6 +1102,48 @@
   </si>
   <si>
     <t xml:space="preserve">CEBOLLA   </t>
+  </si>
+  <si>
+    <t>00972 C</t>
+  </si>
+  <si>
+    <t>01243 C</t>
+  </si>
+  <si>
+    <t>01245 C</t>
+  </si>
+  <si>
+    <t>01256 C</t>
+  </si>
+  <si>
+    <t>01328 C</t>
+  </si>
+  <si>
+    <t>01540 C</t>
+  </si>
+  <si>
+    <t>01556 C</t>
+  </si>
+  <si>
+    <t>01597 C</t>
+  </si>
+  <si>
+    <t>01626 C</t>
+  </si>
+  <si>
+    <t>01761 C</t>
+  </si>
+  <si>
+    <t>01781 C</t>
+  </si>
+  <si>
+    <t>01976 C</t>
+  </si>
+  <si>
+    <t>01977 C</t>
+  </si>
+  <si>
+    <t>02046 C</t>
   </si>
 </sst>
 </file>
@@ -2266,7 +2308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -2689,6 +2731,7 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="17" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2824,9 +2867,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF33CCFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF9933FF"/>
     </mruColors>
   </colors>
@@ -4836,23 +4879,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="258" t="s">
+      <c r="B1" s="250"/>
+      <c r="C1" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="251"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -4862,17 +4905,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="252"/>
+      <c r="B3" s="252" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="253"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="254"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -4888,14 +4931,14 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="255"/>
-      <c r="H4" s="256" t="s">
+      <c r="F4" s="256"/>
+      <c r="H4" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="257"/>
+      <c r="I4" s="258"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4905,10 +4948,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="243" t="s">
+      <c r="P4" s="244" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="244"/>
+      <c r="Q4" s="245"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -6403,11 +6446,11 @@
       <c r="L39" s="69">
         <v>454.62</v>
       </c>
-      <c r="M39" s="245">
+      <c r="M39" s="246">
         <f>SUM(M5:M38)</f>
         <v>1393675.5</v>
       </c>
-      <c r="N39" s="247">
+      <c r="N39" s="248">
         <f>SUM(N5:N38)</f>
         <v>28399.97</v>
       </c>
@@ -6439,8 +6482,8 @@
       <c r="L40" s="69">
         <v>1195.67</v>
       </c>
-      <c r="M40" s="246"/>
-      <c r="N40" s="248"/>
+      <c r="M40" s="247"/>
+      <c r="N40" s="249"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -6673,29 +6716,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="233" t="s">
+      <c r="H52" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="234"/>
+      <c r="I52" s="235"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="235">
+      <c r="K52" s="236">
         <f>I50+L50</f>
         <v>80916.84</v>
       </c>
-      <c r="L52" s="236"/>
-      <c r="M52" s="224">
+      <c r="L52" s="237"/>
+      <c r="M52" s="225">
         <f>N39+M39</f>
         <v>1422075.47</v>
       </c>
-      <c r="N52" s="225"/>
+      <c r="N52" s="226"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="237" t="s">
+      <c r="D53" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="237"/>
+      <c r="E53" s="238"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1396181.44</v>
@@ -6706,22 +6749,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="238" t="s">
+      <c r="D54" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="238"/>
+      <c r="E54" s="239"/>
       <c r="F54" s="102">
         <v>-1523111</v>
       </c>
-      <c r="I54" s="239" t="s">
+      <c r="I54" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="240"/>
-      <c r="K54" s="241">
+      <c r="J54" s="241"/>
+      <c r="K54" s="242">
         <f>F56+F57+F58</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L54" s="242"/>
+      <c r="L54" s="243"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6752,10 +6795,10 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="226">
-        <v>0</v>
-      </c>
-      <c r="L56" s="227"/>
+      <c r="K56" s="227">
+        <v>0</v>
+      </c>
+      <c r="L56" s="228"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -6772,22 +6815,22 @@
       <c r="C58" s="120">
         <v>44444</v>
       </c>
-      <c r="D58" s="228" t="s">
+      <c r="D58" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="229"/>
+      <c r="E58" s="230"/>
       <c r="F58" s="121">
         <v>136234.76999999999</v>
       </c>
-      <c r="I58" s="230" t="s">
+      <c r="I58" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="231"/>
-      <c r="K58" s="232">
+      <c r="J58" s="232"/>
+      <c r="K58" s="233">
         <f>K54+K56</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L58" s="232"/>
+      <c r="L58" s="233"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -6988,12 +7031,12 @@
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="163"/>
-      <c r="B45" s="263" t="s">
+      <c r="B45" s="264" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="264"/>
-      <c r="D45" s="264"/>
-      <c r="E45" s="265"/>
+      <c r="C45" s="265"/>
+      <c r="D45" s="265"/>
+      <c r="E45" s="266"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7220,7 +7263,7 @@
       <c r="C3" s="35">
         <v>3015.96</v>
       </c>
-      <c r="D3" s="260" t="s">
+      <c r="D3" s="261" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="9"/>
@@ -7239,7 +7282,7 @@
       <c r="C4" s="35">
         <v>10281</v>
       </c>
-      <c r="D4" s="261"/>
+      <c r="D4" s="262"/>
       <c r="E4" s="180"/>
       <c r="F4" s="145">
         <f>F3+C4-E4</f>
@@ -7257,7 +7300,7 @@
       <c r="C5" s="35">
         <v>12746.2</v>
       </c>
-      <c r="D5" s="261"/>
+      <c r="D5" s="262"/>
       <c r="E5" s="180"/>
       <c r="F5" s="145">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
@@ -7274,7 +7317,7 @@
       <c r="C6" s="35">
         <v>28974.78</v>
       </c>
-      <c r="D6" s="261"/>
+      <c r="D6" s="262"/>
       <c r="E6" s="180"/>
       <c r="F6" s="145">
         <f t="shared" si="0"/>
@@ -7291,7 +7334,7 @@
       <c r="C7" s="35">
         <v>44758.6</v>
       </c>
-      <c r="D7" s="261"/>
+      <c r="D7" s="262"/>
       <c r="E7" s="180"/>
       <c r="F7" s="145">
         <f t="shared" si="0"/>
@@ -7308,7 +7351,7 @@
       <c r="C8" s="35">
         <v>12841.78</v>
       </c>
-      <c r="D8" s="261"/>
+      <c r="D8" s="262"/>
       <c r="E8" s="180"/>
       <c r="F8" s="145">
         <f t="shared" si="0"/>
@@ -7325,7 +7368,7 @@
       <c r="C9" s="35">
         <v>3898.05</v>
       </c>
-      <c r="D9" s="261"/>
+      <c r="D9" s="262"/>
       <c r="E9" s="180"/>
       <c r="F9" s="145">
         <f t="shared" si="0"/>
@@ -7342,7 +7385,7 @@
       <c r="C10" s="35">
         <v>1429</v>
       </c>
-      <c r="D10" s="262"/>
+      <c r="D10" s="263"/>
       <c r="E10" s="180"/>
       <c r="F10" s="145">
         <f t="shared" si="0"/>
@@ -8862,23 +8905,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="258" t="s">
+      <c r="B1" s="250"/>
+      <c r="C1" s="259" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="251"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -8888,17 +8931,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="252"/>
+      <c r="B3" s="252" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="253"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="254"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -8914,14 +8957,14 @@
       <c r="D4" s="16">
         <v>44444</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="255"/>
-      <c r="H4" s="256" t="s">
+      <c r="F4" s="256"/>
+      <c r="H4" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="257"/>
+      <c r="I4" s="258"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -8931,10 +8974,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="243" t="s">
+      <c r="P4" s="244" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="244"/>
+      <c r="Q4" s="245"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -10424,11 +10467,11 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="245">
+      <c r="M39" s="246">
         <f>SUM(M5:M38)</f>
         <v>1464441</v>
       </c>
-      <c r="N39" s="247">
+      <c r="N39" s="248">
         <f>SUM(N5:N38)</f>
         <v>53494</v>
       </c>
@@ -10454,8 +10497,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="246"/>
-      <c r="N40" s="248"/>
+      <c r="M40" s="247"/>
+      <c r="N40" s="249"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10670,29 +10713,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="233" t="s">
+      <c r="H52" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="234"/>
+      <c r="I52" s="235"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="235">
+      <c r="K52" s="236">
         <f>I50+L50</f>
         <v>69642.26999999999</v>
       </c>
-      <c r="L52" s="236"/>
-      <c r="M52" s="224">
+      <c r="L52" s="237"/>
+      <c r="M52" s="225">
         <f>N39+M39</f>
         <v>1517935</v>
       </c>
-      <c r="N52" s="225"/>
+      <c r="N52" s="226"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="237" t="s">
+      <c r="D53" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="237"/>
+      <c r="E53" s="238"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1505921.23</v>
@@ -10703,22 +10746,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="238" t="s">
+      <c r="D54" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="238"/>
+      <c r="E54" s="239"/>
       <c r="F54" s="102">
         <v>-1424333.95</v>
       </c>
-      <c r="I54" s="239" t="s">
+      <c r="I54" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="240"/>
-      <c r="K54" s="241">
+      <c r="J54" s="241"/>
+      <c r="K54" s="242">
         <f>F56+F57+F58</f>
         <v>222140.17000000004</v>
       </c>
-      <c r="L54" s="242"/>
+      <c r="L54" s="243"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10749,11 +10792,11 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="226">
+      <c r="K56" s="227">
         <f>-C4</f>
         <v>-136234.76999999999</v>
       </c>
-      <c r="L56" s="227"/>
+      <c r="L56" s="228"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -10770,22 +10813,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="228" t="s">
+      <c r="D58" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="229"/>
+      <c r="E58" s="230"/>
       <c r="F58" s="121">
         <v>134848.89000000001</v>
       </c>
-      <c r="I58" s="230" t="s">
+      <c r="I58" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="231"/>
-      <c r="K58" s="232">
+      <c r="J58" s="232"/>
+      <c r="K58" s="233">
         <f>K54+K56</f>
         <v>85905.400000000052</v>
       </c>
-      <c r="L58" s="232"/>
+      <c r="L58" s="233"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -12572,23 +12615,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="258" t="s">
+      <c r="B1" s="250"/>
+      <c r="C1" s="259" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="251"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -12598,17 +12641,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="252"/>
+      <c r="B3" s="252" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="253"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="254"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -12624,14 +12667,14 @@
       <c r="D4" s="16">
         <v>44472</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="255"/>
-      <c r="H4" s="256" t="s">
+      <c r="F4" s="256"/>
+      <c r="H4" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="257"/>
+      <c r="I4" s="258"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12641,10 +12684,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="243" t="s">
+      <c r="P4" s="244" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="244"/>
+      <c r="Q4" s="245"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -14219,11 +14262,11 @@
       <c r="L40" s="69">
         <v>1195.68</v>
       </c>
-      <c r="M40" s="245">
+      <c r="M40" s="246">
         <f>SUM(M5:M39)</f>
         <v>1982944.5</v>
       </c>
-      <c r="N40" s="247">
+      <c r="N40" s="248">
         <f>SUM(N5:N39)</f>
         <v>62048</v>
       </c>
@@ -14255,8 +14298,8 @@
       <c r="L41" s="69">
         <v>942.84</v>
       </c>
-      <c r="M41" s="246"/>
-      <c r="N41" s="248"/>
+      <c r="M41" s="247"/>
+      <c r="N41" s="249"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -14489,29 +14532,29 @@
       <c r="A53" s="104"/>
       <c r="B53" s="105"/>
       <c r="C53" s="3"/>
-      <c r="H53" s="233" t="s">
+      <c r="H53" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="234"/>
+      <c r="I53" s="235"/>
       <c r="J53" s="106"/>
-      <c r="K53" s="235">
+      <c r="K53" s="236">
         <f>I51+L51</f>
         <v>104139.16999999998</v>
       </c>
-      <c r="L53" s="236"/>
-      <c r="M53" s="224">
+      <c r="L53" s="237"/>
+      <c r="M53" s="225">
         <f>N40+M40</f>
         <v>2044992.5</v>
       </c>
-      <c r="N53" s="225"/>
+      <c r="N53" s="226"/>
       <c r="P53" s="83"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="237" t="s">
+      <c r="D54" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="237"/>
+      <c r="E54" s="238"/>
       <c r="F54" s="107">
         <f>F51-K53-C51</f>
         <v>2004605.33</v>
@@ -14522,22 +14565,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="238" t="s">
+      <c r="D55" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="238"/>
+      <c r="E55" s="239"/>
       <c r="F55" s="102">
         <v>-2026393.17</v>
       </c>
-      <c r="I55" s="239" t="s">
+      <c r="I55" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="240"/>
-      <c r="K55" s="241">
+      <c r="J55" s="241"/>
+      <c r="K55" s="242">
         <f>F57+F58+F59</f>
         <v>178711.56000000014</v>
       </c>
-      <c r="L55" s="242"/>
+      <c r="L55" s="243"/>
       <c r="P55" s="83"/>
       <c r="Q55" s="9"/>
     </row>
@@ -14568,11 +14611,11 @@
         <v>13</v>
       </c>
       <c r="J57" s="117"/>
-      <c r="K57" s="226">
+      <c r="K57" s="227">
         <f>-C4</f>
         <v>-134848.89000000001</v>
       </c>
-      <c r="L57" s="227"/>
+      <c r="L57" s="228"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="118" t="s">
@@ -14589,22 +14632,22 @@
       <c r="C59" s="120">
         <v>44507</v>
       </c>
-      <c r="D59" s="228" t="s">
+      <c r="D59" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="229"/>
+      <c r="E59" s="230"/>
       <c r="F59" s="121">
         <v>192529.4</v>
       </c>
-      <c r="I59" s="230" t="s">
+      <c r="I59" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="231"/>
-      <c r="K59" s="232">
+      <c r="J59" s="232"/>
+      <c r="K59" s="233">
         <f>K55+K57</f>
         <v>43862.670000000129</v>
       </c>
-      <c r="L59" s="232"/>
+      <c r="L59" s="233"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="122"/>
@@ -14783,8 +14826,8 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A46" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15653,13 +15696,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="187">
+      <c r="A50" s="144">
         <v>44503</v>
       </c>
-      <c r="B50" s="185" t="s">
+      <c r="B50" s="142" t="s">
         <v>253</v>
       </c>
-      <c r="C50" s="186">
+      <c r="C50" s="79">
         <v>76941.100000000006</v>
       </c>
       <c r="D50" s="144"/>
@@ -15670,13 +15713,13 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="187">
+      <c r="A51" s="144">
         <v>44503</v>
       </c>
-      <c r="B51" s="185" t="s">
+      <c r="B51" s="142" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="186">
+      <c r="C51" s="79">
         <v>13212</v>
       </c>
       <c r="D51" s="144"/>
@@ -15693,99 +15736,99 @@
       <c r="B52" s="185" t="s">
         <v>255</v>
       </c>
-      <c r="C52" s="186">
-        <v>5106</v>
+      <c r="C52" s="79">
+        <v>0</v>
       </c>
       <c r="D52" s="144"/>
       <c r="E52" s="79"/>
       <c r="F52" s="145">
         <f t="shared" si="0"/>
-        <v>95259.1</v>
+        <v>90153.1</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="187">
+      <c r="A53" s="144">
         <v>44504</v>
       </c>
-      <c r="B53" s="185" t="s">
+      <c r="B53" s="142" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="186">
+      <c r="C53" s="79">
         <v>2750</v>
       </c>
       <c r="D53" s="144"/>
       <c r="E53" s="79"/>
       <c r="F53" s="145">
         <f t="shared" si="0"/>
-        <v>98009.1</v>
+        <v>92903.1</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="188">
+      <c r="A54" s="141">
         <v>44504</v>
       </c>
-      <c r="B54" s="185" t="s">
+      <c r="B54" s="142" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="186">
+      <c r="C54" s="79">
         <v>5694</v>
       </c>
       <c r="D54" s="144"/>
       <c r="E54" s="79"/>
       <c r="F54" s="145">
         <f t="shared" si="0"/>
-        <v>103703.1</v>
+        <v>98597.1</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="188">
+      <c r="A55" s="141">
         <v>44505</v>
       </c>
-      <c r="B55" s="185" t="s">
+      <c r="B55" s="142" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="186">
+      <c r="C55" s="79">
         <v>97618</v>
       </c>
       <c r="D55" s="144"/>
       <c r="E55" s="79"/>
       <c r="F55" s="145">
         <f t="shared" si="0"/>
-        <v>201321.1</v>
+        <v>196215.1</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="188">
+      <c r="A56" s="141">
         <v>44505</v>
       </c>
-      <c r="B56" s="185" t="s">
+      <c r="B56" s="142" t="s">
         <v>259</v>
       </c>
-      <c r="C56" s="186">
+      <c r="C56" s="79">
         <v>6914</v>
       </c>
       <c r="D56" s="144"/>
       <c r="E56" s="79"/>
       <c r="F56" s="145">
         <f t="shared" si="0"/>
-        <v>208235.1</v>
+        <v>203129.1</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="187">
+      <c r="A57" s="144">
         <v>44506</v>
       </c>
-      <c r="B57" s="185" t="s">
+      <c r="B57" s="142" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="186">
+      <c r="C57" s="79">
         <v>96936.9</v>
       </c>
       <c r="D57" s="144"/>
       <c r="E57" s="79"/>
       <c r="F57" s="145">
         <f t="shared" si="0"/>
-        <v>305172</v>
+        <v>300066</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -15802,7 +15845,7 @@
       <c r="E58" s="79"/>
       <c r="F58" s="145">
         <f t="shared" si="0"/>
-        <v>311749.2</v>
+        <v>306643.20000000001</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -15815,11 +15858,15 @@
       <c r="C59" s="79">
         <v>606</v>
       </c>
-      <c r="D59" s="144"/>
-      <c r="E59" s="79"/>
+      <c r="D59" s="144">
+        <v>44512</v>
+      </c>
+      <c r="E59" s="79">
+        <v>307249.2</v>
+      </c>
       <c r="F59" s="145">
         <f t="shared" si="0"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -15830,7 +15877,7 @@
       <c r="E60" s="79"/>
       <c r="F60" s="145">
         <f t="shared" si="0"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -15841,7 +15888,7 @@
       <c r="E61" s="79"/>
       <c r="F61" s="145">
         <f t="shared" si="0"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -15852,7 +15899,7 @@
       <c r="E62" s="79"/>
       <c r="F62" s="145">
         <f t="shared" si="0"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15863,7 +15910,7 @@
       <c r="E63" s="79"/>
       <c r="F63" s="145">
         <f t="shared" si="0"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15874,7 +15921,7 @@
       <c r="E64" s="79"/>
       <c r="F64" s="145">
         <f t="shared" si="0"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15885,7 +15932,7 @@
       <c r="E65" s="79"/>
       <c r="F65" s="145">
         <f t="shared" si="0"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15896,7 +15943,7 @@
       <c r="E66" s="79"/>
       <c r="F66" s="145">
         <f t="shared" si="0"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15907,7 +15954,7 @@
       <c r="E67" s="79"/>
       <c r="F67" s="145">
         <f t="shared" si="0"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15918,7 +15965,7 @@
       <c r="E68" s="79"/>
       <c r="F68" s="145">
         <f t="shared" si="0"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15929,7 +15976,7 @@
       <c r="E69" s="79"/>
       <c r="F69" s="145">
         <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15940,7 +15987,7 @@
       <c r="E70" s="79"/>
       <c r="F70" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15951,7 +15998,7 @@
       <c r="E71" s="79"/>
       <c r="F71" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15962,7 +16009,7 @@
       <c r="E72" s="79"/>
       <c r="F72" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15973,7 +16020,7 @@
       <c r="E73" s="79"/>
       <c r="F73" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15984,7 +16031,7 @@
       <c r="E74" s="79"/>
       <c r="F74" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15995,7 +16042,7 @@
       <c r="E75" s="79"/>
       <c r="F75" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16006,7 +16053,7 @@
       <c r="E76" s="79"/>
       <c r="F76" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16017,7 +16064,7 @@
       <c r="E77" s="79"/>
       <c r="F77" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16028,7 +16075,7 @@
       <c r="E78" s="79"/>
       <c r="F78" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16039,7 +16086,7 @@
       <c r="E79" s="79"/>
       <c r="F79" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16050,7 +16097,7 @@
       <c r="E80" s="79"/>
       <c r="F80" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16061,7 +16108,7 @@
       <c r="E81" s="83"/>
       <c r="F81" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16072,7 +16119,7 @@
       <c r="E82" s="83"/>
       <c r="F82" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16083,7 +16130,7 @@
       <c r="E83" s="83"/>
       <c r="F83" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16094,7 +16141,7 @@
       <c r="E84" s="83"/>
       <c r="F84" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16105,7 +16152,7 @@
       <c r="E85" s="83"/>
       <c r="F85" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16116,7 +16163,7 @@
       <c r="E86" s="83"/>
       <c r="F86" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16127,7 +16174,7 @@
       <c r="E87" s="79"/>
       <c r="F87" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16138,7 +16185,7 @@
       <c r="E88" s="79"/>
       <c r="F88" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16149,7 +16196,7 @@
       <c r="E89" s="79"/>
       <c r="F89" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16160,7 +16207,7 @@
       <c r="E90" s="79"/>
       <c r="F90" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16171,7 +16218,7 @@
       <c r="E91" s="79"/>
       <c r="F91" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16182,7 +16229,7 @@
       <c r="E92" s="79"/>
       <c r="F92" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16193,7 +16240,7 @@
       <c r="E93" s="79"/>
       <c r="F93" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16204,7 +16251,7 @@
       <c r="E94" s="79"/>
       <c r="F94" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16215,7 +16262,7 @@
       <c r="E95" s="79"/>
       <c r="F95" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16226,7 +16273,7 @@
       <c r="E96" s="79"/>
       <c r="F96" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16239,23 +16286,23 @@
       <c r="E97" s="151"/>
       <c r="F97" s="145">
         <f t="shared" si="1"/>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B98" s="104"/>
       <c r="C98" s="3">
         <f>SUM(C3:C97)</f>
-        <v>2026393.17</v>
+        <v>2021287.17</v>
       </c>
       <c r="D98" s="103"/>
       <c r="E98" s="3">
         <f>SUM(E3:E97)</f>
-        <v>1714037.97</v>
+        <v>2021287.17</v>
       </c>
       <c r="F98" s="153">
         <f>F97</f>
-        <v>312355.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -16462,8 +16509,8 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16485,23 +16532,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="258" t="s">
+      <c r="B1" s="250"/>
+      <c r="C1" s="259" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="251"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -16511,17 +16558,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="252"/>
+      <c r="B3" s="252" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="253"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="254"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -16537,14 +16584,14 @@
       <c r="D4" s="16">
         <v>44507</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="255"/>
-      <c r="H4" s="256" t="s">
+      <c r="F4" s="256"/>
+      <c r="H4" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="257"/>
+      <c r="I4" s="258"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -16554,10 +16601,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="243" t="s">
+      <c r="P4" s="244" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="244"/>
+      <c r="Q4" s="245"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -17239,33 +17286,40 @@
       <c r="B20" s="21">
         <v>44523</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
       <c r="D20" s="31"/>
       <c r="E20" s="24">
         <v>44523</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="25">
+        <v>38803</v>
+      </c>
       <c r="G20" s="26"/>
       <c r="H20" s="32">
         <v>44523</v>
       </c>
-      <c r="I20" s="28"/>
+      <c r="I20" s="28">
+        <v>15</v>
+      </c>
       <c r="J20" s="33"/>
       <c r="K20" s="50"/>
       <c r="L20" s="43"/>
       <c r="M20" s="138">
-        <v>0</v>
+        <f>20000+18790</f>
+        <v>38790</v>
       </c>
       <c r="N20" s="30">
         <v>0</v>
       </c>
       <c r="P20" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38805</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20" s="26"/>
     </row>
@@ -17274,33 +17328,42 @@
       <c r="B21" s="21">
         <v>44524</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="31"/>
+      <c r="C21" s="22">
+        <v>4880</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>267</v>
+      </c>
       <c r="E21" s="24">
         <v>44524</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="25">
+        <v>41176</v>
+      </c>
       <c r="G21" s="26"/>
       <c r="H21" s="32">
         <v>44524</v>
       </c>
-      <c r="I21" s="28"/>
+      <c r="I21" s="28">
+        <v>35</v>
+      </c>
       <c r="J21" s="33"/>
       <c r="K21" s="177"/>
       <c r="L21" s="43"/>
       <c r="M21" s="138">
-        <v>0</v>
+        <f>20000+16260</f>
+        <v>36260</v>
       </c>
       <c r="N21" s="30">
         <v>0</v>
       </c>
       <c r="P21" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41175</v>
+      </c>
+      <c r="Q21" s="217">
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="R21" s="26"/>
     </row>
@@ -17309,32 +17372,40 @@
       <c r="B22" s="21">
         <v>44525</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="22">
+        <v>0</v>
+      </c>
       <c r="D22" s="31"/>
       <c r="E22" s="24">
         <v>44525</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="25">
+        <v>62185</v>
+      </c>
       <c r="G22" s="26"/>
       <c r="H22" s="32">
         <v>44525</v>
       </c>
-      <c r="I22" s="28"/>
+      <c r="I22" s="28">
+        <v>0</v>
+      </c>
       <c r="J22" s="33"/>
       <c r="K22" s="51"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="138">
-        <v>0</v>
+      <c r="M22" s="224">
+        <f>25000</f>
+        <v>25000</v>
       </c>
       <c r="N22" s="30">
         <v>0</v>
       </c>
       <c r="P22" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>4</v>
+        <v>25000</v>
+      </c>
+      <c r="Q22" s="136">
+        <f t="shared" si="1"/>
+        <v>-37185</v>
       </c>
       <c r="R22" s="26"/>
     </row>
@@ -17367,7 +17438,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17402,7 +17473,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17437,7 +17508,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17475,7 +17546,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17510,7 +17581,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q27" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17545,7 +17616,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q28" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17580,7 +17651,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17904,21 +17975,21 @@
       <c r="J40" s="67"/>
       <c r="K40" s="82"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="245">
+      <c r="M40" s="246">
         <f>SUM(M5:M39)</f>
-        <v>906958</v>
-      </c>
-      <c r="N40" s="247">
+        <v>1007008</v>
+      </c>
+      <c r="N40" s="248">
         <f>SUM(N5:N39)</f>
         <v>20583</v>
       </c>
       <c r="P40" s="83">
         <f>SUM(P5:P39)</f>
-        <v>996571.34</v>
+        <v>1101551.3399999999</v>
       </c>
       <c r="Q40" s="222">
         <f>SUM(Q5:Q38)</f>
-        <v>7999.3399999999965</v>
+        <v>-29184.660000000003</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17934,8 +18005,8 @@
       <c r="J41" s="67"/>
       <c r="K41" s="71"/>
       <c r="L41" s="69"/>
-      <c r="M41" s="246"/>
-      <c r="N41" s="248"/>
+      <c r="M41" s="247"/>
+      <c r="N41" s="249"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -18108,7 +18179,7 @@
       </c>
       <c r="C51" s="93">
         <f>SUM(C5:C50)</f>
-        <v>37884</v>
+        <v>42764</v>
       </c>
       <c r="D51" s="94"/>
       <c r="E51" s="95" t="s">
@@ -18116,7 +18187,7 @@
       </c>
       <c r="F51" s="96">
         <f>SUM(F5:F50)</f>
-        <v>988572</v>
+        <v>1130736</v>
       </c>
       <c r="G51" s="94"/>
       <c r="H51" s="97" t="s">
@@ -18124,7 +18195,7 @@
       </c>
       <c r="I51" s="98">
         <f>SUM(I5:I50)</f>
-        <v>5705</v>
+        <v>5755</v>
       </c>
       <c r="J51" s="99"/>
       <c r="K51" s="100" t="s">
@@ -18150,32 +18221,32 @@
       <c r="A53" s="104"/>
       <c r="B53" s="105"/>
       <c r="C53" s="3"/>
-      <c r="H53" s="233" t="s">
+      <c r="H53" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="234"/>
+      <c r="I53" s="235"/>
       <c r="J53" s="106"/>
-      <c r="K53" s="235">
+      <c r="K53" s="236">
         <f>I51+L51</f>
-        <v>31146.34</v>
-      </c>
-      <c r="L53" s="236"/>
-      <c r="M53" s="224">
+        <v>31196.34</v>
+      </c>
+      <c r="L53" s="237"/>
+      <c r="M53" s="225">
         <f>N40+M40</f>
-        <v>927541</v>
-      </c>
-      <c r="N53" s="225"/>
+        <v>1027591</v>
+      </c>
+      <c r="N53" s="226"/>
       <c r="P53" s="83"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="237" t="s">
+      <c r="D54" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="237"/>
+      <c r="E54" s="238"/>
       <c r="F54" s="107">
         <f>F51-K53-C51</f>
-        <v>919541.66</v>
+        <v>1056775.6599999999</v>
       </c>
       <c r="I54" s="108"/>
       <c r="J54" s="109"/>
@@ -18183,22 +18254,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="238" t="s">
+      <c r="D55" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="238"/>
+      <c r="E55" s="239"/>
       <c r="F55" s="102">
         <v>0</v>
       </c>
-      <c r="I55" s="239" t="s">
+      <c r="I55" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="240"/>
-      <c r="K55" s="241">
+      <c r="J55" s="241"/>
+      <c r="K55" s="242">
         <f>F57+F58+F59</f>
-        <v>919541.66</v>
-      </c>
-      <c r="L55" s="242"/>
+        <v>1056775.6599999999</v>
+      </c>
+      <c r="L55" s="243"/>
       <c r="P55" s="83"/>
       <c r="Q55" s="9"/>
     </row>
@@ -18222,18 +18293,18 @@
       </c>
       <c r="F57" s="102">
         <f>SUM(F54:F56)</f>
-        <v>919541.66</v>
+        <v>1056775.6599999999</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="116" t="s">
         <v>13</v>
       </c>
       <c r="J57" s="117"/>
-      <c r="K57" s="226">
+      <c r="K57" s="227">
         <f>-C4</f>
         <v>-192529.4</v>
       </c>
-      <c r="L57" s="227"/>
+      <c r="L57" s="228"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="118" t="s">
@@ -18248,22 +18319,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="120"/>
-      <c r="D59" s="228" t="s">
+      <c r="D59" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="229"/>
+      <c r="E59" s="230"/>
       <c r="F59" s="121">
         <v>0</v>
       </c>
-      <c r="I59" s="230" t="s">
+      <c r="I59" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="231"/>
-      <c r="K59" s="232">
+      <c r="J59" s="232"/>
+      <c r="K59" s="233">
         <f>K55+K57</f>
-        <v>727012.26</v>
-      </c>
-      <c r="L59" s="232"/>
+        <v>864246.25999999989</v>
+      </c>
+      <c r="L59" s="233"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="122"/>
@@ -18442,8 +18513,8 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18489,159 +18560,251 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="79"/>
+      <c r="A3" s="141">
+        <v>44508</v>
+      </c>
+      <c r="B3" s="179" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="79">
+        <v>21631.48</v>
+      </c>
       <c r="D3" s="203"/>
       <c r="E3" s="79"/>
       <c r="F3" s="143">
         <f>C3-E3</f>
-        <v>0</v>
+        <v>21631.48</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="141"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="79"/>
+      <c r="A4" s="141">
+        <v>44510</v>
+      </c>
+      <c r="B4" s="179" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="79">
+        <v>95563.8</v>
+      </c>
       <c r="D4" s="203"/>
       <c r="E4" s="79"/>
       <c r="F4" s="145">
         <f>F3+C4-E4</f>
-        <v>0</v>
+        <v>117195.28</v>
       </c>
       <c r="G4" s="146"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="141"/>
-      <c r="B5" s="179"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="79"/>
+      <c r="A5" s="141">
+        <v>44510</v>
+      </c>
+      <c r="B5" s="179" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="79">
+        <v>23572.27</v>
+      </c>
+      <c r="D5" s="221">
+        <v>44481</v>
+      </c>
+      <c r="E5" s="79">
+        <v>140767.54999999999</v>
+      </c>
       <c r="F5" s="145">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="141"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="79"/>
+      <c r="A6" s="141">
+        <v>44510</v>
+      </c>
+      <c r="B6" s="179" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="79">
+        <v>504</v>
+      </c>
       <c r="D6" s="203"/>
       <c r="E6" s="79"/>
       <c r="F6" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="141"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="79"/>
+      <c r="A7" s="141">
+        <v>44511</v>
+      </c>
+      <c r="B7" s="179" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="79">
+        <v>40140.839999999997</v>
+      </c>
       <c r="D7" s="203"/>
       <c r="E7" s="79"/>
       <c r="F7" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40644.839999999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="141"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="141">
+        <v>44513</v>
+      </c>
+      <c r="B8" s="179" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="79">
+        <v>123754.4</v>
+      </c>
       <c r="D8" s="203"/>
       <c r="E8" s="79"/>
       <c r="F8" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>164399.24</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="141"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="79"/>
+      <c r="A9" s="141">
+        <v>44513</v>
+      </c>
+      <c r="B9" s="179" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="79">
+        <v>27945.79</v>
+      </c>
       <c r="D9" s="203"/>
       <c r="E9" s="79"/>
       <c r="F9" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>192345.03</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="141"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="79"/>
+      <c r="A10" s="141">
+        <v>44513</v>
+      </c>
+      <c r="B10" s="179" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="79">
+        <v>4108</v>
+      </c>
       <c r="D10" s="203"/>
       <c r="E10" s="79"/>
       <c r="F10" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>196453.03</v>
       </c>
       <c r="G10" s="146"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="141"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="79"/>
+      <c r="A11" s="141">
+        <v>44513</v>
+      </c>
+      <c r="B11" s="142" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="79">
+        <v>20972</v>
+      </c>
       <c r="D11" s="144"/>
       <c r="E11" s="79"/>
       <c r="F11" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>217425.03</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="79"/>
+      <c r="A12" s="144">
+        <v>44515</v>
+      </c>
+      <c r="B12" s="142" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="79">
+        <v>41874.6</v>
+      </c>
       <c r="D12" s="144"/>
       <c r="E12" s="79"/>
       <c r="F12" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>259299.63</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="144"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="79"/>
+      <c r="A13" s="144">
+        <v>15111</v>
+      </c>
+      <c r="B13" s="142" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="79">
+        <v>10480.799999999999</v>
+      </c>
       <c r="D13" s="144"/>
       <c r="E13" s="79"/>
       <c r="F13" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>269780.43</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="144"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="79"/>
+      <c r="A14" s="144">
+        <v>44516</v>
+      </c>
+      <c r="B14" s="142" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="79">
+        <v>3918.4</v>
+      </c>
       <c r="D14" s="144"/>
       <c r="E14" s="79"/>
       <c r="F14" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>273698.83</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
-      <c r="B15" s="142"/>
-      <c r="C15" s="79"/>
+      <c r="A15" s="144">
+        <v>44516</v>
+      </c>
+      <c r="B15" s="142" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="79">
+        <v>107092.1</v>
+      </c>
       <c r="D15" s="144"/>
       <c r="E15" s="79"/>
       <c r="F15" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>380790.93000000005</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="79"/>
+      <c r="A16" s="144">
+        <v>44517</v>
+      </c>
+      <c r="B16" s="142" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="79">
+        <v>84186.4</v>
+      </c>
+      <c r="D16" s="144">
+        <v>44519</v>
+      </c>
+      <c r="E16" s="79">
+        <v>385896.93</v>
+      </c>
       <c r="F16" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18652,7 +18815,7 @@
       <c r="E17" s="79"/>
       <c r="F17" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18663,7 +18826,7 @@
       <c r="E18" s="79"/>
       <c r="F18" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18674,7 +18837,7 @@
       <c r="E19" s="79"/>
       <c r="F19" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18685,7 +18848,7 @@
       <c r="E20" s="79"/>
       <c r="F20" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18696,7 +18859,7 @@
       <c r="E21" s="79"/>
       <c r="F21" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -18707,7 +18870,7 @@
       <c r="E22" s="79"/>
       <c r="F22" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
       <c r="G22" s="146"/>
     </row>
@@ -18719,7 +18882,7 @@
       <c r="E23" s="79"/>
       <c r="F23" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18730,7 +18893,7 @@
       <c r="E24" s="79"/>
       <c r="F24" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18741,7 +18904,7 @@
       <c r="E25" s="79"/>
       <c r="F25" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18752,7 +18915,7 @@
       <c r="E26" s="79"/>
       <c r="F26" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18763,7 +18926,7 @@
       <c r="E27" s="79"/>
       <c r="F27" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18774,7 +18937,7 @@
       <c r="E28" s="79"/>
       <c r="F28" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18785,7 +18948,7 @@
       <c r="E29" s="79"/>
       <c r="F29" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -18796,7 +18959,7 @@
       <c r="E30" s="79"/>
       <c r="F30" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
       <c r="G30" s="146"/>
     </row>
@@ -18808,7 +18971,7 @@
       <c r="E31" s="79"/>
       <c r="F31" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18819,7 +18982,7 @@
       <c r="E32" s="79"/>
       <c r="F32" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18830,7 +18993,7 @@
       <c r="E33" s="79"/>
       <c r="F33" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18841,7 +19004,7 @@
       <c r="E34" s="79"/>
       <c r="F34" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18852,7 +19015,7 @@
       <c r="E35" s="79"/>
       <c r="F35" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18863,7 +19026,7 @@
       <c r="E36" s="79"/>
       <c r="F36" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18874,7 +19037,7 @@
       <c r="E37" s="79"/>
       <c r="F37" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18885,7 +19048,7 @@
       <c r="E38" s="79"/>
       <c r="F38" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18896,7 +19059,7 @@
       <c r="E39" s="79"/>
       <c r="F39" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18907,7 +19070,7 @@
       <c r="E40" s="79"/>
       <c r="F40" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18918,7 +19081,7 @@
       <c r="E41" s="79"/>
       <c r="F41" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18929,7 +19092,7 @@
       <c r="E42" s="79"/>
       <c r="F42" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18940,7 +19103,7 @@
       <c r="E43" s="79"/>
       <c r="F43" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18951,7 +19114,7 @@
       <c r="E44" s="79"/>
       <c r="F44" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18962,7 +19125,7 @@
       <c r="E45" s="79"/>
       <c r="F45" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18973,7 +19136,7 @@
       <c r="E46" s="79"/>
       <c r="F46" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18984,7 +19147,7 @@
       <c r="E47" s="79"/>
       <c r="F47" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18995,7 +19158,7 @@
       <c r="E48" s="79"/>
       <c r="F48" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19006,7 +19169,7 @@
       <c r="E49" s="79"/>
       <c r="F49" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19017,7 +19180,7 @@
       <c r="E50" s="79"/>
       <c r="F50" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19028,7 +19191,7 @@
       <c r="E51" s="79"/>
       <c r="F51" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19039,7 +19202,7 @@
       <c r="E52" s="79"/>
       <c r="F52" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19050,7 +19213,7 @@
       <c r="E53" s="79"/>
       <c r="F53" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19061,7 +19224,7 @@
       <c r="E54" s="79"/>
       <c r="F54" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19072,7 +19235,7 @@
       <c r="E55" s="79"/>
       <c r="F55" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19083,7 +19246,7 @@
       <c r="E56" s="79"/>
       <c r="F56" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19094,7 +19257,7 @@
       <c r="E57" s="79"/>
       <c r="F57" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19105,7 +19268,7 @@
       <c r="E58" s="79"/>
       <c r="F58" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19116,7 +19279,7 @@
       <c r="E59" s="79"/>
       <c r="F59" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19127,7 +19290,7 @@
       <c r="E60" s="79"/>
       <c r="F60" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19138,7 +19301,7 @@
       <c r="E61" s="79"/>
       <c r="F61" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19149,7 +19312,7 @@
       <c r="E62" s="79"/>
       <c r="F62" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -19160,7 +19323,7 @@
       <c r="E63" s="79"/>
       <c r="F63" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19171,7 +19334,7 @@
       <c r="E64" s="79"/>
       <c r="F64" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19182,7 +19345,7 @@
       <c r="E65" s="79"/>
       <c r="F65" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19193,7 +19356,7 @@
       <c r="E66" s="79"/>
       <c r="F66" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19204,7 +19367,7 @@
       <c r="E67" s="79"/>
       <c r="F67" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19215,7 +19378,7 @@
       <c r="E68" s="79"/>
       <c r="F68" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19226,7 +19389,7 @@
       <c r="E69" s="79"/>
       <c r="F69" s="145">
         <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19237,7 +19400,7 @@
       <c r="E70" s="79"/>
       <c r="F70" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19248,7 +19411,7 @@
       <c r="E71" s="79"/>
       <c r="F71" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19259,7 +19422,7 @@
       <c r="E72" s="79"/>
       <c r="F72" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19270,7 +19433,7 @@
       <c r="E73" s="79"/>
       <c r="F73" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19281,7 +19444,7 @@
       <c r="E74" s="79"/>
       <c r="F74" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19292,7 +19455,7 @@
       <c r="E75" s="79"/>
       <c r="F75" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19303,7 +19466,7 @@
       <c r="E76" s="79"/>
       <c r="F76" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19314,7 +19477,7 @@
       <c r="E77" s="79"/>
       <c r="F77" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19325,7 +19488,7 @@
       <c r="E78" s="79"/>
       <c r="F78" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19336,7 +19499,7 @@
       <c r="E79" s="79"/>
       <c r="F79" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19347,7 +19510,7 @@
       <c r="E80" s="79"/>
       <c r="F80" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19358,7 +19521,7 @@
       <c r="E81" s="83"/>
       <c r="F81" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19369,7 +19532,7 @@
       <c r="E82" s="83"/>
       <c r="F82" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19380,7 +19543,7 @@
       <c r="E83" s="83"/>
       <c r="F83" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19391,7 +19554,7 @@
       <c r="E84" s="83"/>
       <c r="F84" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19402,7 +19565,7 @@
       <c r="E85" s="83"/>
       <c r="F85" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19413,7 +19576,7 @@
       <c r="E86" s="83"/>
       <c r="F86" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19424,7 +19587,7 @@
       <c r="E87" s="79"/>
       <c r="F87" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19435,7 +19598,7 @@
       <c r="E88" s="79"/>
       <c r="F88" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19446,7 +19609,7 @@
       <c r="E89" s="79"/>
       <c r="F89" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19457,7 +19620,7 @@
       <c r="E90" s="79"/>
       <c r="F90" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19468,7 +19631,7 @@
       <c r="E91" s="79"/>
       <c r="F91" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19479,7 +19642,7 @@
       <c r="E92" s="79"/>
       <c r="F92" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19490,7 +19653,7 @@
       <c r="E93" s="79"/>
       <c r="F93" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19501,7 +19664,7 @@
       <c r="E94" s="79"/>
       <c r="F94" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19512,7 +19675,7 @@
       <c r="E95" s="79"/>
       <c r="F95" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19523,7 +19686,7 @@
       <c r="E96" s="79"/>
       <c r="F96" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19536,23 +19699,23 @@
       <c r="E97" s="151"/>
       <c r="F97" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B98" s="104"/>
       <c r="C98" s="3">
         <f>SUM(C3:C97)</f>
-        <v>0</v>
+        <v>605744.88</v>
       </c>
       <c r="D98" s="103"/>
       <c r="E98" s="3">
         <f>SUM(E3:E97)</f>
-        <v>0</v>
+        <v>526664.48</v>
       </c>
       <c r="F98" s="153">
         <f>F97</f>
-        <v>0</v>
+        <v>79080.400000000081</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -19749,6 +19912,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE  HERRADURA  NOVIEMBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE  HERRADURA  NOVIEMBRE   2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="A G O S T O    2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="296">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1144,6 +1144,15 @@
   </si>
   <si>
     <t>02046 C</t>
+  </si>
+  <si>
+    <t>PEREJIL--CEBOLLA</t>
+  </si>
+  <si>
+    <t>ARRACHERA-CONCHA DE RES</t>
+  </si>
+  <si>
+    <t>NOMINA # 48</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -2731,7 +2740,57 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2787,57 +2846,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4879,23 +4887,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="250"/>
-      <c r="C1" s="259" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="239" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="251"/>
+      <c r="B2" s="231"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -4905,17 +4913,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="252" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="253"/>
+      <c r="B3" s="232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="233"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="254" t="s">
+      <c r="H3" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="254"/>
+      <c r="I3" s="234"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -4931,14 +4939,14 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="255" t="s">
+      <c r="E4" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="256"/>
-      <c r="H4" s="257" t="s">
+      <c r="F4" s="236"/>
+      <c r="H4" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="258"/>
+      <c r="I4" s="238"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4948,10 +4956,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="244" t="s">
+      <c r="P4" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="245"/>
+      <c r="Q4" s="225"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -6446,11 +6454,11 @@
       <c r="L39" s="69">
         <v>454.62</v>
       </c>
-      <c r="M39" s="246">
+      <c r="M39" s="226">
         <f>SUM(M5:M38)</f>
         <v>1393675.5</v>
       </c>
-      <c r="N39" s="248">
+      <c r="N39" s="228">
         <f>SUM(N5:N38)</f>
         <v>28399.97</v>
       </c>
@@ -6482,8 +6490,8 @@
       <c r="L40" s="69">
         <v>1195.67</v>
       </c>
-      <c r="M40" s="247"/>
-      <c r="N40" s="249"/>
+      <c r="M40" s="227"/>
+      <c r="N40" s="229"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -6716,29 +6724,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="234" t="s">
+      <c r="H52" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="235"/>
+      <c r="I52" s="251"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="236">
+      <c r="K52" s="252">
         <f>I50+L50</f>
         <v>80916.84</v>
       </c>
-      <c r="L52" s="237"/>
-      <c r="M52" s="225">
+      <c r="L52" s="253"/>
+      <c r="M52" s="241">
         <f>N39+M39</f>
         <v>1422075.47</v>
       </c>
-      <c r="N52" s="226"/>
+      <c r="N52" s="242"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="238" t="s">
+      <c r="D53" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="238"/>
+      <c r="E53" s="254"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1396181.44</v>
@@ -6749,22 +6757,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="239" t="s">
+      <c r="D54" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="239"/>
+      <c r="E54" s="255"/>
       <c r="F54" s="102">
         <v>-1523111</v>
       </c>
-      <c r="I54" s="240" t="s">
+      <c r="I54" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="241"/>
-      <c r="K54" s="242">
+      <c r="J54" s="257"/>
+      <c r="K54" s="258">
         <f>F56+F57+F58</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L54" s="243"/>
+      <c r="L54" s="259"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6795,10 +6803,10 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="227">
-        <v>0</v>
-      </c>
-      <c r="L56" s="228"/>
+      <c r="K56" s="243">
+        <v>0</v>
+      </c>
+      <c r="L56" s="244"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -6815,22 +6823,22 @@
       <c r="C58" s="120">
         <v>44444</v>
       </c>
-      <c r="D58" s="229" t="s">
+      <c r="D58" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="230"/>
+      <c r="E58" s="246"/>
       <c r="F58" s="121">
         <v>136234.76999999999</v>
       </c>
-      <c r="I58" s="231" t="s">
+      <c r="I58" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="232"/>
-      <c r="K58" s="233">
+      <c r="J58" s="248"/>
+      <c r="K58" s="249">
         <f>K54+K56</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L58" s="233"/>
+      <c r="L58" s="249"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -6974,15 +6982,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C1:M1"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:E58"/>
@@ -6994,6 +6993,15 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7031,12 +7039,12 @@
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="163"/>
-      <c r="B45" s="264" t="s">
+      <c r="B45" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="265"/>
-      <c r="D45" s="265"/>
-      <c r="E45" s="266"/>
+      <c r="C45" s="264"/>
+      <c r="D45" s="264"/>
+      <c r="E45" s="265"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7263,7 +7271,7 @@
       <c r="C3" s="35">
         <v>3015.96</v>
       </c>
-      <c r="D3" s="261" t="s">
+      <c r="D3" s="260" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="9"/>
@@ -7282,7 +7290,7 @@
       <c r="C4" s="35">
         <v>10281</v>
       </c>
-      <c r="D4" s="262"/>
+      <c r="D4" s="261"/>
       <c r="E4" s="180"/>
       <c r="F4" s="145">
         <f>F3+C4-E4</f>
@@ -7300,7 +7308,7 @@
       <c r="C5" s="35">
         <v>12746.2</v>
       </c>
-      <c r="D5" s="262"/>
+      <c r="D5" s="261"/>
       <c r="E5" s="180"/>
       <c r="F5" s="145">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
@@ -7317,7 +7325,7 @@
       <c r="C6" s="35">
         <v>28974.78</v>
       </c>
-      <c r="D6" s="262"/>
+      <c r="D6" s="261"/>
       <c r="E6" s="180"/>
       <c r="F6" s="145">
         <f t="shared" si="0"/>
@@ -7334,7 +7342,7 @@
       <c r="C7" s="35">
         <v>44758.6</v>
       </c>
-      <c r="D7" s="262"/>
+      <c r="D7" s="261"/>
       <c r="E7" s="180"/>
       <c r="F7" s="145">
         <f t="shared" si="0"/>
@@ -7351,7 +7359,7 @@
       <c r="C8" s="35">
         <v>12841.78</v>
       </c>
-      <c r="D8" s="262"/>
+      <c r="D8" s="261"/>
       <c r="E8" s="180"/>
       <c r="F8" s="145">
         <f t="shared" si="0"/>
@@ -7368,7 +7376,7 @@
       <c r="C9" s="35">
         <v>3898.05</v>
       </c>
-      <c r="D9" s="262"/>
+      <c r="D9" s="261"/>
       <c r="E9" s="180"/>
       <c r="F9" s="145">
         <f t="shared" si="0"/>
@@ -7385,7 +7393,7 @@
       <c r="C10" s="35">
         <v>1429</v>
       </c>
-      <c r="D10" s="263"/>
+      <c r="D10" s="262"/>
       <c r="E10" s="180"/>
       <c r="F10" s="145">
         <f t="shared" si="0"/>
@@ -8905,23 +8913,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="250"/>
-      <c r="C1" s="259" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="239" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="251"/>
+      <c r="B2" s="231"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -8931,17 +8939,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="252" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="253"/>
+      <c r="B3" s="232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="233"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="254" t="s">
+      <c r="H3" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="254"/>
+      <c r="I3" s="234"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -8957,14 +8965,14 @@
       <c r="D4" s="16">
         <v>44444</v>
       </c>
-      <c r="E4" s="255" t="s">
+      <c r="E4" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="256"/>
-      <c r="H4" s="257" t="s">
+      <c r="F4" s="236"/>
+      <c r="H4" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="258"/>
+      <c r="I4" s="238"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -8974,10 +8982,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="244" t="s">
+      <c r="P4" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="245"/>
+      <c r="Q4" s="225"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -10467,11 +10475,11 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="246">
+      <c r="M39" s="226">
         <f>SUM(M5:M38)</f>
         <v>1464441</v>
       </c>
-      <c r="N39" s="248">
+      <c r="N39" s="228">
         <f>SUM(N5:N38)</f>
         <v>53494</v>
       </c>
@@ -10497,8 +10505,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="247"/>
-      <c r="N40" s="249"/>
+      <c r="M40" s="227"/>
+      <c r="N40" s="229"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10713,29 +10721,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="234" t="s">
+      <c r="H52" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="235"/>
+      <c r="I52" s="251"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="236">
+      <c r="K52" s="252">
         <f>I50+L50</f>
         <v>69642.26999999999</v>
       </c>
-      <c r="L52" s="237"/>
-      <c r="M52" s="225">
+      <c r="L52" s="253"/>
+      <c r="M52" s="241">
         <f>N39+M39</f>
         <v>1517935</v>
       </c>
-      <c r="N52" s="226"/>
+      <c r="N52" s="242"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="238" t="s">
+      <c r="D53" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="238"/>
+      <c r="E53" s="254"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1505921.23</v>
@@ -10746,22 +10754,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="239" t="s">
+      <c r="D54" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="239"/>
+      <c r="E54" s="255"/>
       <c r="F54" s="102">
         <v>-1424333.95</v>
       </c>
-      <c r="I54" s="240" t="s">
+      <c r="I54" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="241"/>
-      <c r="K54" s="242">
+      <c r="J54" s="257"/>
+      <c r="K54" s="258">
         <f>F56+F57+F58</f>
         <v>222140.17000000004</v>
       </c>
-      <c r="L54" s="243"/>
+      <c r="L54" s="259"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10792,11 +10800,11 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="227">
+      <c r="K56" s="243">
         <f>-C4</f>
         <v>-136234.76999999999</v>
       </c>
-      <c r="L56" s="228"/>
+      <c r="L56" s="244"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -10813,22 +10821,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="229" t="s">
+      <c r="D58" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="230"/>
+      <c r="E58" s="246"/>
       <c r="F58" s="121">
         <v>134848.89000000001</v>
       </c>
-      <c r="I58" s="231" t="s">
+      <c r="I58" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="232"/>
-      <c r="K58" s="233">
+      <c r="J58" s="248"/>
+      <c r="K58" s="249">
         <f>K54+K56</f>
         <v>85905.400000000052</v>
       </c>
-      <c r="L58" s="233"/>
+      <c r="L58" s="249"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -10972,12 +10980,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10992,6 +10994,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12615,23 +12623,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="250"/>
-      <c r="C1" s="259" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="239" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="251"/>
+      <c r="B2" s="231"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -12641,17 +12649,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="252" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="253"/>
+      <c r="B3" s="232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="233"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="254" t="s">
+      <c r="H3" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="254"/>
+      <c r="I3" s="234"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -12667,14 +12675,14 @@
       <c r="D4" s="16">
         <v>44472</v>
       </c>
-      <c r="E4" s="255" t="s">
+      <c r="E4" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="256"/>
-      <c r="H4" s="257" t="s">
+      <c r="F4" s="236"/>
+      <c r="H4" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="258"/>
+      <c r="I4" s="238"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12684,10 +12692,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="244" t="s">
+      <c r="P4" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="245"/>
+      <c r="Q4" s="225"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -14262,11 +14270,11 @@
       <c r="L40" s="69">
         <v>1195.68</v>
       </c>
-      <c r="M40" s="246">
+      <c r="M40" s="226">
         <f>SUM(M5:M39)</f>
         <v>1982944.5</v>
       </c>
-      <c r="N40" s="248">
+      <c r="N40" s="228">
         <f>SUM(N5:N39)</f>
         <v>62048</v>
       </c>
@@ -14298,8 +14306,8 @@
       <c r="L41" s="69">
         <v>942.84</v>
       </c>
-      <c r="M41" s="247"/>
-      <c r="N41" s="249"/>
+      <c r="M41" s="227"/>
+      <c r="N41" s="229"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -14532,29 +14540,29 @@
       <c r="A53" s="104"/>
       <c r="B53" s="105"/>
       <c r="C53" s="3"/>
-      <c r="H53" s="234" t="s">
+      <c r="H53" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="235"/>
+      <c r="I53" s="251"/>
       <c r="J53" s="106"/>
-      <c r="K53" s="236">
+      <c r="K53" s="252">
         <f>I51+L51</f>
         <v>104139.16999999998</v>
       </c>
-      <c r="L53" s="237"/>
-      <c r="M53" s="225">
+      <c r="L53" s="253"/>
+      <c r="M53" s="241">
         <f>N40+M40</f>
         <v>2044992.5</v>
       </c>
-      <c r="N53" s="226"/>
+      <c r="N53" s="242"/>
       <c r="P53" s="83"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="238" t="s">
+      <c r="D54" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="238"/>
+      <c r="E54" s="254"/>
       <c r="F54" s="107">
         <f>F51-K53-C51</f>
         <v>2004605.33</v>
@@ -14565,22 +14573,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="239" t="s">
+      <c r="D55" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="239"/>
+      <c r="E55" s="255"/>
       <c r="F55" s="102">
         <v>-2026393.17</v>
       </c>
-      <c r="I55" s="240" t="s">
+      <c r="I55" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="241"/>
-      <c r="K55" s="242">
+      <c r="J55" s="257"/>
+      <c r="K55" s="258">
         <f>F57+F58+F59</f>
         <v>178711.56000000014</v>
       </c>
-      <c r="L55" s="243"/>
+      <c r="L55" s="259"/>
       <c r="P55" s="83"/>
       <c r="Q55" s="9"/>
     </row>
@@ -14611,11 +14619,11 @@
         <v>13</v>
       </c>
       <c r="J57" s="117"/>
-      <c r="K57" s="227">
+      <c r="K57" s="243">
         <f>-C4</f>
         <v>-134848.89000000001</v>
       </c>
-      <c r="L57" s="228"/>
+      <c r="L57" s="244"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="118" t="s">
@@ -14632,22 +14640,22 @@
       <c r="C59" s="120">
         <v>44507</v>
       </c>
-      <c r="D59" s="229" t="s">
+      <c r="D59" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="230"/>
+      <c r="E59" s="246"/>
       <c r="F59" s="121">
         <v>192529.4</v>
       </c>
-      <c r="I59" s="231" t="s">
+      <c r="I59" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="232"/>
-      <c r="K59" s="233">
+      <c r="J59" s="248"/>
+      <c r="K59" s="249">
         <f>K55+K57</f>
         <v>43862.670000000129</v>
       </c>
-      <c r="L59" s="233"/>
+      <c r="L59" s="249"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="122"/>
@@ -14791,12 +14799,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
@@ -14811,6 +14813,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16509,8 +16517,8 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16532,23 +16540,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="250"/>
-      <c r="C1" s="259" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="251"/>
+      <c r="B2" s="231"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -16558,17 +16566,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="252" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="253"/>
+      <c r="B3" s="232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="233"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="254" t="s">
+      <c r="H3" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="254"/>
+      <c r="I3" s="234"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -16584,14 +16592,14 @@
       <c r="D4" s="16">
         <v>44507</v>
       </c>
-      <c r="E4" s="255" t="s">
+      <c r="E4" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="256"/>
-      <c r="H4" s="257" t="s">
+      <c r="F4" s="236"/>
+      <c r="H4" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="258"/>
+      <c r="I4" s="238"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -16601,10 +16609,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="244" t="s">
+      <c r="P4" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="245"/>
+      <c r="Q4" s="225"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -17387,25 +17395,25 @@
         <v>44525</v>
       </c>
       <c r="I22" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="51"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="224">
-        <f>25000</f>
-        <v>25000</v>
+      <c r="M22" s="138">
+        <f>25000+37170</f>
+        <v>62170</v>
       </c>
       <c r="N22" s="30">
         <v>0</v>
       </c>
       <c r="P22" s="83">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>62185</v>
       </c>
       <c r="Q22" s="136">
         <f t="shared" si="1"/>
-        <v>-37185</v>
+        <v>0</v>
       </c>
       <c r="R22" s="26"/>
     </row>
@@ -17414,33 +17422,42 @@
       <c r="B23" s="21">
         <v>44526</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="22">
+        <v>11</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>293</v>
+      </c>
       <c r="E23" s="24">
         <v>44526</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="25">
+        <v>76130</v>
+      </c>
       <c r="G23" s="26"/>
       <c r="H23" s="32">
         <v>44526</v>
       </c>
-      <c r="I23" s="28"/>
+      <c r="I23" s="28">
+        <v>68</v>
+      </c>
       <c r="J23" s="53"/>
       <c r="K23" s="54"/>
       <c r="L23" s="43"/>
       <c r="M23" s="138">
-        <v>0</v>
+        <f>40000+35720</f>
+        <v>75720</v>
       </c>
       <c r="N23" s="30">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="P23" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="136">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76124</v>
+      </c>
+      <c r="Q23" s="217">
+        <f t="shared" si="1"/>
+        <v>-6</v>
       </c>
       <c r="R23" s="26"/>
     </row>
@@ -17449,33 +17466,48 @@
       <c r="B24" s="21">
         <v>44527</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="31"/>
+      <c r="C24" s="22">
+        <v>2932</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="E24" s="24">
         <v>44527</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25">
+        <v>81104</v>
+      </c>
       <c r="G24" s="26"/>
       <c r="H24" s="32">
         <v>44527</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="57"/>
+      <c r="I24" s="28">
+        <v>64</v>
+      </c>
+      <c r="J24" s="55">
+        <v>44527</v>
+      </c>
+      <c r="K24" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="L24" s="57">
+        <v>11641.34</v>
+      </c>
       <c r="M24" s="138">
-        <v>0</v>
+        <f>25000+32590</f>
+        <v>57590</v>
       </c>
       <c r="N24" s="30">
-        <v>0</v>
+        <v>8884</v>
       </c>
       <c r="P24" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81111.34</v>
       </c>
       <c r="Q24" s="136">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.3399999999965075</v>
       </c>
       <c r="R24" s="26"/>
     </row>
@@ -17484,29 +17516,36 @@
       <c r="B25" s="21">
         <v>44528</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
       <c r="D25" s="31"/>
       <c r="E25" s="24">
         <v>44528</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="25">
+        <v>114169</v>
+      </c>
       <c r="G25" s="26"/>
       <c r="H25" s="32">
         <v>44528</v>
       </c>
-      <c r="I25" s="28"/>
+      <c r="I25" s="28">
+        <v>0</v>
+      </c>
       <c r="J25" s="58"/>
       <c r="K25" s="59"/>
       <c r="L25" s="60"/>
       <c r="M25" s="138">
-        <v>0</v>
+        <f>100000+14124</f>
+        <v>114124</v>
       </c>
       <c r="N25" s="30">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P25" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114169</v>
       </c>
       <c r="Q25" s="136">
         <f t="shared" si="1"/>
@@ -17522,29 +17561,36 @@
       <c r="B26" s="21">
         <v>44529</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
       <c r="D26" s="31"/>
       <c r="E26" s="24">
         <v>44529</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="25">
+        <v>57148</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="32">
         <v>44529</v>
       </c>
-      <c r="I26" s="28"/>
+      <c r="I26" s="28">
+        <v>43</v>
+      </c>
       <c r="J26" s="33"/>
       <c r="K26" s="56"/>
       <c r="L26" s="43"/>
       <c r="M26" s="138">
-        <v>0</v>
+        <f>24705+32400</f>
+        <v>57105</v>
       </c>
       <c r="N26" s="30">
         <v>0</v>
       </c>
       <c r="P26" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57148</v>
       </c>
       <c r="Q26" s="136">
         <f t="shared" si="1"/>
@@ -17975,21 +18021,21 @@
       <c r="J40" s="67"/>
       <c r="K40" s="82"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="246">
+      <c r="M40" s="226">
         <f>SUM(M5:M39)</f>
-        <v>1007008</v>
-      </c>
-      <c r="N40" s="248">
+        <v>1348717</v>
+      </c>
+      <c r="N40" s="228">
         <f>SUM(N5:N39)</f>
-        <v>20583</v>
+        <v>29837</v>
       </c>
       <c r="P40" s="83">
         <f>SUM(P5:P39)</f>
-        <v>1101551.3399999999</v>
+        <v>1467288.68</v>
       </c>
       <c r="Q40" s="222">
         <f>SUM(Q5:Q38)</f>
-        <v>-29184.660000000003</v>
+        <v>8001.679999999993</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18005,8 +18051,8 @@
       <c r="J41" s="67"/>
       <c r="K41" s="71"/>
       <c r="L41" s="69"/>
-      <c r="M41" s="247"/>
-      <c r="N41" s="249"/>
+      <c r="M41" s="227"/>
+      <c r="N41" s="229"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -18179,7 +18225,7 @@
       </c>
       <c r="C51" s="93">
         <f>SUM(C5:C50)</f>
-        <v>42764</v>
+        <v>45707</v>
       </c>
       <c r="D51" s="94"/>
       <c r="E51" s="95" t="s">
@@ -18187,7 +18233,7 @@
       </c>
       <c r="F51" s="96">
         <f>SUM(F5:F50)</f>
-        <v>1130736</v>
+        <v>1459287</v>
       </c>
       <c r="G51" s="94"/>
       <c r="H51" s="97" t="s">
@@ -18195,7 +18241,7 @@
       </c>
       <c r="I51" s="98">
         <f>SUM(I5:I50)</f>
-        <v>5755</v>
+        <v>5945</v>
       </c>
       <c r="J51" s="99"/>
       <c r="K51" s="100" t="s">
@@ -18203,7 +18249,7 @@
       </c>
       <c r="L51" s="101">
         <f>SUM(L5:L50)</f>
-        <v>25441.34</v>
+        <v>37082.68</v>
       </c>
       <c r="M51" s="102"/>
       <c r="N51" s="102"/>
@@ -18221,32 +18267,32 @@
       <c r="A53" s="104"/>
       <c r="B53" s="105"/>
       <c r="C53" s="3"/>
-      <c r="H53" s="234" t="s">
+      <c r="H53" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="235"/>
+      <c r="I53" s="251"/>
       <c r="J53" s="106"/>
-      <c r="K53" s="236">
+      <c r="K53" s="252">
         <f>I51+L51</f>
-        <v>31196.34</v>
-      </c>
-      <c r="L53" s="237"/>
-      <c r="M53" s="225">
+        <v>43027.68</v>
+      </c>
+      <c r="L53" s="253"/>
+      <c r="M53" s="241">
         <f>N40+M40</f>
-        <v>1027591</v>
-      </c>
-      <c r="N53" s="226"/>
+        <v>1378554</v>
+      </c>
+      <c r="N53" s="242"/>
       <c r="P53" s="83"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="238" t="s">
+      <c r="D54" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="238"/>
+      <c r="E54" s="254"/>
       <c r="F54" s="107">
         <f>F51-K53-C51</f>
-        <v>1056775.6599999999</v>
+        <v>1370552.3200000001</v>
       </c>
       <c r="I54" s="108"/>
       <c r="J54" s="109"/>
@@ -18254,22 +18300,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="239" t="s">
+      <c r="D55" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="239"/>
+      <c r="E55" s="255"/>
       <c r="F55" s="102">
         <v>0</v>
       </c>
-      <c r="I55" s="240" t="s">
+      <c r="I55" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="241"/>
-      <c r="K55" s="242">
+      <c r="J55" s="257"/>
+      <c r="K55" s="258">
         <f>F57+F58+F59</f>
-        <v>1056775.6599999999</v>
-      </c>
-      <c r="L55" s="243"/>
+        <v>1370552.3200000001</v>
+      </c>
+      <c r="L55" s="259"/>
       <c r="P55" s="83"/>
       <c r="Q55" s="9"/>
     </row>
@@ -18293,18 +18339,18 @@
       </c>
       <c r="F57" s="102">
         <f>SUM(F54:F56)</f>
-        <v>1056775.6599999999</v>
+        <v>1370552.3200000001</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="116" t="s">
         <v>13</v>
       </c>
       <c r="J57" s="117"/>
-      <c r="K57" s="227">
+      <c r="K57" s="243">
         <f>-C4</f>
         <v>-192529.4</v>
       </c>
-      <c r="L57" s="228"/>
+      <c r="L57" s="244"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="118" t="s">
@@ -18319,22 +18365,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="120"/>
-      <c r="D59" s="229" t="s">
+      <c r="D59" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="230"/>
+      <c r="E59" s="246"/>
       <c r="F59" s="121">
         <v>0</v>
       </c>
-      <c r="I59" s="231" t="s">
+      <c r="I59" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="232"/>
-      <c r="K59" s="233">
+      <c r="J59" s="248"/>
+      <c r="K59" s="249">
         <f>K55+K57</f>
-        <v>864246.25999999989</v>
-      </c>
-      <c r="L59" s="233"/>
+        <v>1178022.9200000002</v>
+      </c>
+      <c r="L59" s="249"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="122"/>
@@ -18478,12 +18524,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
@@ -18498,6 +18538,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18513,8 +18559,8 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE  HERRADURA  NOVIEMBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE  HERRADURA  NOVIEMBRE   2021.xlsx
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="322">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1153,6 +1153,84 @@
   </si>
   <si>
     <t>NOMINA # 48</t>
+  </si>
+  <si>
+    <t>RES-SALCHICHA-QUESO-JAMON</t>
+  </si>
+  <si>
+    <t>LONGANIZA--ARABE</t>
+  </si>
+  <si>
+    <t>NOMINA # 49</t>
+  </si>
+  <si>
+    <t>02169 C</t>
+  </si>
+  <si>
+    <t>02171 C</t>
+  </si>
+  <si>
+    <t>02355 C</t>
+  </si>
+  <si>
+    <t>02357 C</t>
+  </si>
+  <si>
+    <t>02359 C</t>
+  </si>
+  <si>
+    <t>02512 C</t>
+  </si>
+  <si>
+    <t>02636 C</t>
+  </si>
+  <si>
+    <t>02744 C</t>
+  </si>
+  <si>
+    <t>02821 C</t>
+  </si>
+  <si>
+    <t>02905 C</t>
+  </si>
+  <si>
+    <t>03047 C</t>
+  </si>
+  <si>
+    <t>03048 C</t>
+  </si>
+  <si>
+    <t>03220 C</t>
+  </si>
+  <si>
+    <t>03320 C</t>
+  </si>
+  <si>
+    <t>03376 C</t>
+  </si>
+  <si>
+    <t>03495 C</t>
+  </si>
+  <si>
+    <t>03537 C</t>
+  </si>
+  <si>
+    <t>03664 C</t>
+  </si>
+  <si>
+    <t>03734 C</t>
+  </si>
+  <si>
+    <t>03950 C</t>
+  </si>
+  <si>
+    <t>04015 C</t>
+  </si>
+  <si>
+    <t>04017 C</t>
+  </si>
+  <si>
+    <t>04079 C</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1245,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1523,6 +1601,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1580,7 +1665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -2312,12 +2397,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -2740,55 +2858,10 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2848,6 +2921,57 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2866,6 +2990,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="60" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="39" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="45" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4887,23 +5045,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="230"/>
-      <c r="C1" s="239" t="s">
+      <c r="B1" s="251"/>
+      <c r="C1" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="261"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231"/>
+      <c r="B2" s="252"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -4913,17 +5071,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="233"/>
+      <c r="B3" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="254"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="234" t="s">
+      <c r="H3" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="234"/>
+      <c r="I3" s="255"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -4939,14 +5097,14 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="H4" s="237" t="s">
+      <c r="F4" s="257"/>
+      <c r="H4" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="238"/>
+      <c r="I4" s="259"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4956,10 +5114,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="224" t="s">
+      <c r="P4" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="225"/>
+      <c r="Q4" s="246"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -6454,11 +6612,11 @@
       <c r="L39" s="69">
         <v>454.62</v>
       </c>
-      <c r="M39" s="226">
+      <c r="M39" s="247">
         <f>SUM(M5:M38)</f>
         <v>1393675.5</v>
       </c>
-      <c r="N39" s="228">
+      <c r="N39" s="249">
         <f>SUM(N5:N38)</f>
         <v>28399.97</v>
       </c>
@@ -6490,8 +6648,8 @@
       <c r="L40" s="69">
         <v>1195.67</v>
       </c>
-      <c r="M40" s="227"/>
-      <c r="N40" s="229"/>
+      <c r="M40" s="248"/>
+      <c r="N40" s="250"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -6724,29 +6882,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="250" t="s">
+      <c r="H52" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="251"/>
+      <c r="I52" s="236"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="252">
+      <c r="K52" s="237">
         <f>I50+L50</f>
         <v>80916.84</v>
       </c>
-      <c r="L52" s="253"/>
-      <c r="M52" s="241">
+      <c r="L52" s="238"/>
+      <c r="M52" s="226">
         <f>N39+M39</f>
         <v>1422075.47</v>
       </c>
-      <c r="N52" s="242"/>
+      <c r="N52" s="227"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="254" t="s">
+      <c r="D53" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="254"/>
+      <c r="E53" s="239"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1396181.44</v>
@@ -6757,22 +6915,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="255" t="s">
+      <c r="D54" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="255"/>
+      <c r="E54" s="240"/>
       <c r="F54" s="102">
         <v>-1523111</v>
       </c>
-      <c r="I54" s="256" t="s">
+      <c r="I54" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="257"/>
-      <c r="K54" s="258">
+      <c r="J54" s="242"/>
+      <c r="K54" s="243">
         <f>F56+F57+F58</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L54" s="259"/>
+      <c r="L54" s="244"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6803,10 +6961,10 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="243">
-        <v>0</v>
-      </c>
-      <c r="L56" s="244"/>
+      <c r="K56" s="228">
+        <v>0</v>
+      </c>
+      <c r="L56" s="229"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -6823,22 +6981,22 @@
       <c r="C58" s="120">
         <v>44444</v>
       </c>
-      <c r="D58" s="245" t="s">
+      <c r="D58" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="246"/>
+      <c r="E58" s="231"/>
       <c r="F58" s="121">
         <v>136234.76999999999</v>
       </c>
-      <c r="I58" s="247" t="s">
+      <c r="I58" s="232" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="248"/>
-      <c r="K58" s="249">
+      <c r="J58" s="233"/>
+      <c r="K58" s="234">
         <f>K54+K56</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L58" s="249"/>
+      <c r="L58" s="234"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -6982,6 +7140,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C1:M1"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:E58"/>
@@ -6993,15 +7160,6 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7039,12 +7197,12 @@
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="163"/>
-      <c r="B45" s="263" t="s">
+      <c r="B45" s="265" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="264"/>
-      <c r="D45" s="264"/>
-      <c r="E45" s="265"/>
+      <c r="C45" s="266"/>
+      <c r="D45" s="266"/>
+      <c r="E45" s="267"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7271,7 +7429,7 @@
       <c r="C3" s="35">
         <v>3015.96</v>
       </c>
-      <c r="D3" s="260" t="s">
+      <c r="D3" s="262" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="9"/>
@@ -7290,7 +7448,7 @@
       <c r="C4" s="35">
         <v>10281</v>
       </c>
-      <c r="D4" s="261"/>
+      <c r="D4" s="263"/>
       <c r="E4" s="180"/>
       <c r="F4" s="145">
         <f>F3+C4-E4</f>
@@ -7308,7 +7466,7 @@
       <c r="C5" s="35">
         <v>12746.2</v>
       </c>
-      <c r="D5" s="261"/>
+      <c r="D5" s="263"/>
       <c r="E5" s="180"/>
       <c r="F5" s="145">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
@@ -7325,7 +7483,7 @@
       <c r="C6" s="35">
         <v>28974.78</v>
       </c>
-      <c r="D6" s="261"/>
+      <c r="D6" s="263"/>
       <c r="E6" s="180"/>
       <c r="F6" s="145">
         <f t="shared" si="0"/>
@@ -7342,7 +7500,7 @@
       <c r="C7" s="35">
         <v>44758.6</v>
       </c>
-      <c r="D7" s="261"/>
+      <c r="D7" s="263"/>
       <c r="E7" s="180"/>
       <c r="F7" s="145">
         <f t="shared" si="0"/>
@@ -7359,7 +7517,7 @@
       <c r="C8" s="35">
         <v>12841.78</v>
       </c>
-      <c r="D8" s="261"/>
+      <c r="D8" s="263"/>
       <c r="E8" s="180"/>
       <c r="F8" s="145">
         <f t="shared" si="0"/>
@@ -7376,7 +7534,7 @@
       <c r="C9" s="35">
         <v>3898.05</v>
       </c>
-      <c r="D9" s="261"/>
+      <c r="D9" s="263"/>
       <c r="E9" s="180"/>
       <c r="F9" s="145">
         <f t="shared" si="0"/>
@@ -7393,7 +7551,7 @@
       <c r="C10" s="35">
         <v>1429</v>
       </c>
-      <c r="D10" s="262"/>
+      <c r="D10" s="264"/>
       <c r="E10" s="180"/>
       <c r="F10" s="145">
         <f t="shared" si="0"/>
@@ -8913,23 +9071,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="230"/>
-      <c r="C1" s="239" t="s">
+      <c r="B1" s="251"/>
+      <c r="C1" s="260" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="261"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231"/>
+      <c r="B2" s="252"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -8939,17 +9097,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="233"/>
+      <c r="B3" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="254"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="234" t="s">
+      <c r="H3" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="234"/>
+      <c r="I3" s="255"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -8965,14 +9123,14 @@
       <c r="D4" s="16">
         <v>44444</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="H4" s="237" t="s">
+      <c r="F4" s="257"/>
+      <c r="H4" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="238"/>
+      <c r="I4" s="259"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -8982,10 +9140,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="224" t="s">
+      <c r="P4" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="225"/>
+      <c r="Q4" s="246"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -10475,11 +10633,11 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="226">
+      <c r="M39" s="247">
         <f>SUM(M5:M38)</f>
         <v>1464441</v>
       </c>
-      <c r="N39" s="228">
+      <c r="N39" s="249">
         <f>SUM(N5:N38)</f>
         <v>53494</v>
       </c>
@@ -10505,8 +10663,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="227"/>
-      <c r="N40" s="229"/>
+      <c r="M40" s="248"/>
+      <c r="N40" s="250"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10721,29 +10879,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="250" t="s">
+      <c r="H52" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="251"/>
+      <c r="I52" s="236"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="252">
+      <c r="K52" s="237">
         <f>I50+L50</f>
         <v>69642.26999999999</v>
       </c>
-      <c r="L52" s="253"/>
-      <c r="M52" s="241">
+      <c r="L52" s="238"/>
+      <c r="M52" s="226">
         <f>N39+M39</f>
         <v>1517935</v>
       </c>
-      <c r="N52" s="242"/>
+      <c r="N52" s="227"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="254" t="s">
+      <c r="D53" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="254"/>
+      <c r="E53" s="239"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1505921.23</v>
@@ -10754,22 +10912,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="255" t="s">
+      <c r="D54" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="255"/>
+      <c r="E54" s="240"/>
       <c r="F54" s="102">
         <v>-1424333.95</v>
       </c>
-      <c r="I54" s="256" t="s">
+      <c r="I54" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="257"/>
-      <c r="K54" s="258">
+      <c r="J54" s="242"/>
+      <c r="K54" s="243">
         <f>F56+F57+F58</f>
         <v>222140.17000000004</v>
       </c>
-      <c r="L54" s="259"/>
+      <c r="L54" s="244"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10800,11 +10958,11 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="243">
+      <c r="K56" s="228">
         <f>-C4</f>
         <v>-136234.76999999999</v>
       </c>
-      <c r="L56" s="244"/>
+      <c r="L56" s="229"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -10821,22 +10979,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="245" t="s">
+      <c r="D58" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="246"/>
+      <c r="E58" s="231"/>
       <c r="F58" s="121">
         <v>134848.89000000001</v>
       </c>
-      <c r="I58" s="247" t="s">
+      <c r="I58" s="232" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="248"/>
-      <c r="K58" s="249">
+      <c r="J58" s="233"/>
+      <c r="K58" s="234">
         <f>K54+K56</f>
         <v>85905.400000000052</v>
       </c>
-      <c r="L58" s="249"/>
+      <c r="L58" s="234"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -10980,6 +11138,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10994,12 +11158,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12623,23 +12781,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="230"/>
-      <c r="C1" s="239" t="s">
+      <c r="B1" s="251"/>
+      <c r="C1" s="260" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="261"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231"/>
+      <c r="B2" s="252"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -12649,17 +12807,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="233"/>
+      <c r="B3" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="254"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="234" t="s">
+      <c r="H3" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="234"/>
+      <c r="I3" s="255"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -12675,14 +12833,14 @@
       <c r="D4" s="16">
         <v>44472</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="H4" s="237" t="s">
+      <c r="F4" s="257"/>
+      <c r="H4" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="238"/>
+      <c r="I4" s="259"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12692,10 +12850,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="224" t="s">
+      <c r="P4" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="225"/>
+      <c r="Q4" s="246"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -14270,11 +14428,11 @@
       <c r="L40" s="69">
         <v>1195.68</v>
       </c>
-      <c r="M40" s="226">
+      <c r="M40" s="247">
         <f>SUM(M5:M39)</f>
         <v>1982944.5</v>
       </c>
-      <c r="N40" s="228">
+      <c r="N40" s="249">
         <f>SUM(N5:N39)</f>
         <v>62048</v>
       </c>
@@ -14306,8 +14464,8 @@
       <c r="L41" s="69">
         <v>942.84</v>
       </c>
-      <c r="M41" s="227"/>
-      <c r="N41" s="229"/>
+      <c r="M41" s="248"/>
+      <c r="N41" s="250"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -14540,29 +14698,29 @@
       <c r="A53" s="104"/>
       <c r="B53" s="105"/>
       <c r="C53" s="3"/>
-      <c r="H53" s="250" t="s">
+      <c r="H53" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="251"/>
+      <c r="I53" s="236"/>
       <c r="J53" s="106"/>
-      <c r="K53" s="252">
+      <c r="K53" s="237">
         <f>I51+L51</f>
         <v>104139.16999999998</v>
       </c>
-      <c r="L53" s="253"/>
-      <c r="M53" s="241">
+      <c r="L53" s="238"/>
+      <c r="M53" s="226">
         <f>N40+M40</f>
         <v>2044992.5</v>
       </c>
-      <c r="N53" s="242"/>
+      <c r="N53" s="227"/>
       <c r="P53" s="83"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="254" t="s">
+      <c r="D54" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="254"/>
+      <c r="E54" s="239"/>
       <c r="F54" s="107">
         <f>F51-K53-C51</f>
         <v>2004605.33</v>
@@ -14573,22 +14731,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="255" t="s">
+      <c r="D55" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="255"/>
+      <c r="E55" s="240"/>
       <c r="F55" s="102">
         <v>-2026393.17</v>
       </c>
-      <c r="I55" s="256" t="s">
+      <c r="I55" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="257"/>
-      <c r="K55" s="258">
+      <c r="J55" s="242"/>
+      <c r="K55" s="243">
         <f>F57+F58+F59</f>
         <v>178711.56000000014</v>
       </c>
-      <c r="L55" s="259"/>
+      <c r="L55" s="244"/>
       <c r="P55" s="83"/>
       <c r="Q55" s="9"/>
     </row>
@@ -14619,11 +14777,11 @@
         <v>13</v>
       </c>
       <c r="J57" s="117"/>
-      <c r="K57" s="243">
+      <c r="K57" s="228">
         <f>-C4</f>
         <v>-134848.89000000001</v>
       </c>
-      <c r="L57" s="244"/>
+      <c r="L57" s="229"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="118" t="s">
@@ -14640,22 +14798,22 @@
       <c r="C59" s="120">
         <v>44507</v>
       </c>
-      <c r="D59" s="245" t="s">
+      <c r="D59" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="246"/>
+      <c r="E59" s="231"/>
       <c r="F59" s="121">
         <v>192529.4</v>
       </c>
-      <c r="I59" s="247" t="s">
+      <c r="I59" s="232" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="248"/>
-      <c r="K59" s="249">
+      <c r="J59" s="233"/>
+      <c r="K59" s="234">
         <f>K55+K57</f>
         <v>43862.670000000129</v>
       </c>
-      <c r="L59" s="249"/>
+      <c r="L59" s="234"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="122"/>
@@ -14799,6 +14957,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
@@ -14813,12 +14977,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14835,7 +14993,7 @@
   <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:B52"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16517,8 +16675,8 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16540,23 +16698,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="230"/>
-      <c r="C1" s="239" t="s">
+      <c r="B1" s="251"/>
+      <c r="C1" s="260" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="261"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231"/>
+      <c r="B2" s="252"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -16566,17 +16724,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="233"/>
+      <c r="B3" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="254"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="234" t="s">
+      <c r="H3" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="234"/>
+      <c r="I3" s="255"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -16592,14 +16750,14 @@
       <c r="D4" s="16">
         <v>44507</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="H4" s="237" t="s">
+      <c r="F4" s="257"/>
+      <c r="H4" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="238"/>
+      <c r="I4" s="259"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -16609,10 +16767,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="224" t="s">
+      <c r="P4" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="225"/>
+      <c r="Q4" s="246"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -17543,6 +17701,9 @@
       <c r="N25" s="30">
         <v>45</v>
       </c>
+      <c r="O25" t="s">
+        <v>4</v>
+      </c>
       <c r="P25" s="83">
         <f t="shared" si="0"/>
         <v>114169</v>
@@ -17603,29 +17764,36 @@
       <c r="B27" s="21">
         <v>44530</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="22">
+        <v>0</v>
+      </c>
       <c r="D27" s="38"/>
       <c r="E27" s="24">
         <v>44530</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="25">
+        <v>60332</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="32">
         <v>44530</v>
       </c>
-      <c r="I27" s="28"/>
+      <c r="I27" s="28">
+        <v>3010</v>
+      </c>
       <c r="J27" s="61"/>
       <c r="K27" s="62"/>
       <c r="L27" s="60"/>
       <c r="M27" s="138">
-        <v>0</v>
+        <f>20000+37065</f>
+        <v>57065</v>
       </c>
       <c r="N27" s="30">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="P27" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60332</v>
       </c>
       <c r="Q27" s="136">
         <f t="shared" si="1"/>
@@ -17638,33 +17806,40 @@
       <c r="B28" s="21">
         <v>44531</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="22">
+        <v>0</v>
+      </c>
       <c r="D28" s="38"/>
       <c r="E28" s="24">
         <v>44531</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="25">
+        <v>56883</v>
+      </c>
       <c r="G28" s="26"/>
       <c r="H28" s="32">
         <v>44531</v>
       </c>
-      <c r="I28" s="28"/>
+      <c r="I28" s="28">
+        <v>440</v>
+      </c>
       <c r="J28" s="63"/>
       <c r="K28" s="34"/>
       <c r="L28" s="60"/>
       <c r="M28" s="138">
-        <v>0</v>
+        <f>25000+31450</f>
+        <v>56450</v>
       </c>
       <c r="N28" s="30">
         <v>0</v>
       </c>
       <c r="P28" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56890</v>
       </c>
       <c r="Q28" s="136">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R28" s="26"/>
     </row>
@@ -17673,33 +17848,40 @@
       <c r="B29" s="21">
         <v>44532</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="22">
+        <v>0</v>
+      </c>
       <c r="D29" s="64"/>
       <c r="E29" s="24">
         <v>44532</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="25">
+        <v>57610</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="32">
         <v>44532</v>
       </c>
-      <c r="I29" s="28"/>
+      <c r="I29" s="28">
+        <v>15</v>
+      </c>
       <c r="J29" s="65"/>
       <c r="K29" s="66"/>
       <c r="L29" s="60"/>
       <c r="M29" s="138">
-        <v>0</v>
+        <f>15000+42590</f>
+        <v>57590</v>
       </c>
       <c r="N29" s="30">
         <v>0</v>
       </c>
       <c r="P29" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57605</v>
       </c>
       <c r="Q29" s="136">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="R29" s="26"/>
     </row>
@@ -17708,33 +17890,42 @@
       <c r="B30" s="21">
         <v>44533</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="64"/>
+      <c r="C30" s="22">
+        <v>10946</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>296</v>
+      </c>
       <c r="E30" s="24">
         <v>44533</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="25">
+        <v>96473</v>
+      </c>
       <c r="G30" s="26"/>
       <c r="H30" s="32">
         <v>44533</v>
       </c>
-      <c r="I30" s="28"/>
+      <c r="I30" s="28">
+        <v>68</v>
+      </c>
       <c r="J30" s="67"/>
       <c r="K30" s="68"/>
       <c r="L30" s="69"/>
       <c r="M30" s="138">
-        <v>0</v>
+        <f>30000+55460</f>
+        <v>85460</v>
       </c>
       <c r="N30" s="30">
         <v>0</v>
       </c>
       <c r="P30" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96474</v>
       </c>
       <c r="Q30" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="26"/>
     </row>
@@ -17743,33 +17934,48 @@
       <c r="B31" s="21">
         <v>44534</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="70"/>
+      <c r="C31" s="22">
+        <v>5370</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>297</v>
+      </c>
       <c r="E31" s="24">
         <v>44534</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="25">
+        <v>89958</v>
+      </c>
       <c r="G31" s="26"/>
       <c r="H31" s="32">
         <v>44534</v>
       </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="72"/>
+      <c r="I31" s="28">
+        <v>30</v>
+      </c>
+      <c r="J31" s="67">
+        <v>44534</v>
+      </c>
+      <c r="K31" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="L31" s="72">
+        <v>9900</v>
+      </c>
       <c r="M31" s="138">
-        <v>0</v>
+        <f>35000+32120</f>
+        <v>67120</v>
       </c>
       <c r="N31" s="30">
-        <v>0</v>
+        <v>7539</v>
       </c>
       <c r="P31" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89959</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="26"/>
     </row>
@@ -17778,29 +17984,36 @@
       <c r="B32" s="21">
         <v>44535</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
       <c r="D32" s="73"/>
       <c r="E32" s="24">
         <v>44535</v>
       </c>
-      <c r="F32" s="25"/>
+      <c r="F32" s="25">
+        <v>127971</v>
+      </c>
       <c r="G32" s="26"/>
       <c r="H32" s="32">
         <v>44535</v>
       </c>
-      <c r="I32" s="28"/>
+      <c r="I32" s="28">
+        <v>10</v>
+      </c>
       <c r="J32" s="67"/>
       <c r="K32" s="68"/>
       <c r="L32" s="69"/>
       <c r="M32" s="138">
-        <v>0</v>
+        <f>60000+50000+17482</f>
+        <v>127482</v>
       </c>
       <c r="N32" s="30">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="P32" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>127971</v>
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="1"/>
@@ -18021,21 +18234,21 @@
       <c r="J40" s="67"/>
       <c r="K40" s="82"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="226">
+      <c r="M40" s="247">
         <f>SUM(M5:M39)</f>
-        <v>1348717</v>
-      </c>
-      <c r="N40" s="228">
+        <v>1799884</v>
+      </c>
+      <c r="N40" s="249">
         <f>SUM(N5:N39)</f>
-        <v>29837</v>
+        <v>38112</v>
       </c>
       <c r="P40" s="83">
         <f>SUM(P5:P39)</f>
-        <v>1467288.68</v>
+        <v>1956519.68</v>
       </c>
       <c r="Q40" s="222">
         <f>SUM(Q5:Q38)</f>
-        <v>8001.679999999993</v>
+        <v>8005.679999999993</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18051,8 +18264,8 @@
       <c r="J41" s="67"/>
       <c r="K41" s="71"/>
       <c r="L41" s="69"/>
-      <c r="M41" s="227"/>
-      <c r="N41" s="229"/>
+      <c r="M41" s="248"/>
+      <c r="N41" s="250"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -18225,7 +18438,7 @@
       </c>
       <c r="C51" s="93">
         <f>SUM(C5:C50)</f>
-        <v>45707</v>
+        <v>62023</v>
       </c>
       <c r="D51" s="94"/>
       <c r="E51" s="95" t="s">
@@ -18233,7 +18446,7 @@
       </c>
       <c r="F51" s="96">
         <f>SUM(F5:F50)</f>
-        <v>1459287</v>
+        <v>1948514</v>
       </c>
       <c r="G51" s="94"/>
       <c r="H51" s="97" t="s">
@@ -18241,7 +18454,7 @@
       </c>
       <c r="I51" s="98">
         <f>SUM(I5:I50)</f>
-        <v>5945</v>
+        <v>9518</v>
       </c>
       <c r="J51" s="99"/>
       <c r="K51" s="100" t="s">
@@ -18249,7 +18462,7 @@
       </c>
       <c r="L51" s="101">
         <f>SUM(L5:L50)</f>
-        <v>37082.68</v>
+        <v>46982.68</v>
       </c>
       <c r="M51" s="102"/>
       <c r="N51" s="102"/>
@@ -18267,32 +18480,32 @@
       <c r="A53" s="104"/>
       <c r="B53" s="105"/>
       <c r="C53" s="3"/>
-      <c r="H53" s="250" t="s">
+      <c r="H53" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="251"/>
+      <c r="I53" s="236"/>
       <c r="J53" s="106"/>
-      <c r="K53" s="252">
+      <c r="K53" s="237">
         <f>I51+L51</f>
-        <v>43027.68</v>
-      </c>
-      <c r="L53" s="253"/>
-      <c r="M53" s="241">
+        <v>56500.68</v>
+      </c>
+      <c r="L53" s="238"/>
+      <c r="M53" s="226">
         <f>N40+M40</f>
-        <v>1378554</v>
-      </c>
-      <c r="N53" s="242"/>
+        <v>1837996</v>
+      </c>
+      <c r="N53" s="227"/>
       <c r="P53" s="83"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="254" t="s">
+      <c r="D54" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="254"/>
+      <c r="E54" s="239"/>
       <c r="F54" s="107">
         <f>F51-K53-C51</f>
-        <v>1370552.3200000001</v>
+        <v>1829990.32</v>
       </c>
       <c r="I54" s="108"/>
       <c r="J54" s="109"/>
@@ -18300,22 +18513,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="255" t="s">
+      <c r="D55" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="255"/>
+      <c r="E55" s="240"/>
       <c r="F55" s="102">
-        <v>0</v>
-      </c>
-      <c r="I55" s="256" t="s">
+        <v>-1751881.55</v>
+      </c>
+      <c r="I55" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="257"/>
-      <c r="K55" s="258">
+      <c r="J55" s="242"/>
+      <c r="K55" s="243">
         <f>F57+F58+F59</f>
-        <v>1370552.3200000001</v>
-      </c>
-      <c r="L55" s="259"/>
+        <v>86914.770000000019</v>
+      </c>
+      <c r="L55" s="244"/>
       <c r="P55" s="83"/>
       <c r="Q55" s="9"/>
     </row>
@@ -18339,18 +18552,18 @@
       </c>
       <c r="F57" s="102">
         <f>SUM(F54:F56)</f>
-        <v>1370552.3200000001</v>
+        <v>78108.770000000019</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="116" t="s">
         <v>13</v>
       </c>
       <c r="J57" s="117"/>
-      <c r="K57" s="243">
+      <c r="K57" s="228">
         <f>-C4</f>
         <v>-192529.4</v>
       </c>
-      <c r="L57" s="244"/>
+      <c r="L57" s="229"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="118" t="s">
@@ -18360,27 +18573,27 @@
         <v>15</v>
       </c>
       <c r="F58" s="119">
-        <v>0</v>
+        <v>8806</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="120"/>
-      <c r="D59" s="245" t="s">
+      <c r="D59" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="246"/>
+      <c r="E59" s="231"/>
       <c r="F59" s="121">
         <v>0</v>
       </c>
-      <c r="I59" s="247" t="s">
+      <c r="I59" s="232" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="248"/>
-      <c r="K59" s="249">
+      <c r="J59" s="233"/>
+      <c r="K59" s="234">
         <f>K55+K57</f>
-        <v>1178022.9200000002</v>
-      </c>
-      <c r="L59" s="249"/>
+        <v>-105614.62999999998</v>
+      </c>
+      <c r="L59" s="234"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="122"/>
@@ -18524,6 +18737,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
@@ -18538,12 +18757,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18557,10 +18770,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18574,142 +18787,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="158" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="271" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="225" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="273" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="202" t="s">
+      <c r="E2" s="273" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="F2" s="274" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="141">
-        <v>44508</v>
-      </c>
-      <c r="B3" s="179" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="79">
-        <v>21631.48</v>
-      </c>
-      <c r="D3" s="203"/>
-      <c r="E3" s="79"/>
+      <c r="A3" s="272">
+        <v>44507</v>
+      </c>
+      <c r="B3" s="201" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="202">
+        <v>5106</v>
+      </c>
+      <c r="D3" s="201"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="143">
         <f>C3-E3</f>
-        <v>21631.48</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="141">
-        <v>44510</v>
+        <v>44508</v>
       </c>
       <c r="B4" s="179" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C4" s="79">
-        <v>95563.8</v>
+        <v>21631.48</v>
       </c>
       <c r="D4" s="203"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="145">
-        <f>F3+C4-E4</f>
-        <v>117195.28</v>
-      </c>
-      <c r="G4" s="146"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F4" s="143">
+        <f>C4-E4+F3</f>
+        <v>26737.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="141">
         <v>44510</v>
       </c>
       <c r="B5" s="179" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="79">
-        <v>23572.27</v>
-      </c>
-      <c r="D5" s="221">
-        <v>44481</v>
-      </c>
-      <c r="E5" s="79">
-        <v>140767.54999999999</v>
-      </c>
+        <v>95563.8</v>
+      </c>
+      <c r="D5" s="203"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="145">
-        <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
-        <v>0</v>
-      </c>
+        <f>F4+C5-E5</f>
+        <v>122301.28</v>
+      </c>
+      <c r="G5" s="146"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="141">
         <v>44510</v>
       </c>
       <c r="B6" s="179" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" s="79">
-        <v>504</v>
-      </c>
-      <c r="D6" s="203"/>
-      <c r="E6" s="79"/>
+        <v>23572.27</v>
+      </c>
+      <c r="D6" s="221">
+        <v>44481</v>
+      </c>
+      <c r="E6" s="79">
+        <v>140767.54999999999</v>
+      </c>
       <c r="F6" s="145">
-        <f t="shared" si="0"/>
-        <v>504</v>
+        <f t="shared" ref="F6:F69" si="0">F5+C6-E6</f>
+        <v>5106</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="141">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="B7" s="179" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="79">
-        <v>40140.839999999997</v>
+        <v>504</v>
       </c>
       <c r="D7" s="203"/>
       <c r="E7" s="79"/>
       <c r="F7" s="145">
-        <f t="shared" si="0"/>
-        <v>40644.839999999997</v>
+        <f>F6+C7-E7</f>
+        <v>5610</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="141">
-        <v>44513</v>
+        <v>44511</v>
       </c>
       <c r="B8" s="179" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" s="79">
-        <v>123754.4</v>
+        <v>40140.839999999997</v>
       </c>
       <c r="D8" s="203"/>
       <c r="E8" s="79"/>
       <c r="F8" s="145">
-        <f t="shared" si="0"/>
-        <v>164399.24</v>
+        <f>F7+C8-E8</f>
+        <v>45750.84</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18717,102 +18930,102 @@
         <v>44513</v>
       </c>
       <c r="B9" s="179" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="79">
-        <v>27945.79</v>
+        <v>123754.4</v>
       </c>
       <c r="D9" s="203"/>
       <c r="E9" s="79"/>
       <c r="F9" s="145">
-        <f t="shared" si="0"/>
-        <v>192345.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <f>F8+C9-E9</f>
+        <v>169505.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="141">
         <v>44513</v>
       </c>
       <c r="B10" s="179" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="79">
-        <v>4108</v>
+        <v>27945.79</v>
       </c>
       <c r="D10" s="203"/>
       <c r="E10" s="79"/>
       <c r="F10" s="145">
-        <f t="shared" si="0"/>
-        <v>196453.03</v>
-      </c>
-      <c r="G10" s="146"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F10:F73" si="1">F9+C10-E10</f>
+        <v>197451.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="141">
         <v>44513</v>
       </c>
-      <c r="B11" s="142" t="s">
-        <v>287</v>
+      <c r="B11" s="179" t="s">
+        <v>286</v>
       </c>
       <c r="C11" s="79">
-        <v>20972</v>
-      </c>
-      <c r="D11" s="144"/>
+        <v>4108</v>
+      </c>
+      <c r="D11" s="203"/>
       <c r="E11" s="79"/>
       <c r="F11" s="145">
-        <f t="shared" si="0"/>
-        <v>217425.03</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>201559.03</v>
+      </c>
+      <c r="G11" s="146"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="144">
-        <v>44515</v>
+      <c r="A12" s="141">
+        <v>44513</v>
       </c>
       <c r="B12" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C12" s="79">
-        <v>41874.6</v>
+        <v>20972</v>
       </c>
       <c r="D12" s="144"/>
       <c r="E12" s="79"/>
       <c r="F12" s="145">
-        <f t="shared" si="0"/>
-        <v>259299.63</v>
+        <f t="shared" si="1"/>
+        <v>222531.03</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="144">
-        <v>15111</v>
+        <v>44515</v>
       </c>
       <c r="B13" s="142" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="79">
-        <v>10480.799999999999</v>
+        <v>41874.6</v>
       </c>
       <c r="D13" s="144"/>
       <c r="E13" s="79"/>
       <c r="F13" s="145">
-        <f t="shared" si="0"/>
-        <v>269780.43</v>
+        <f t="shared" si="1"/>
+        <v>264405.63</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="144">
-        <v>44516</v>
+        <v>15111</v>
       </c>
       <c r="B14" s="142" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C14" s="79">
-        <v>3918.4</v>
+        <v>10480.799999999999</v>
       </c>
       <c r="D14" s="144"/>
       <c r="E14" s="79"/>
       <c r="F14" s="145">
-        <f t="shared" si="0"/>
-        <v>273698.83</v>
+        <f t="shared" si="1"/>
+        <v>274886.43</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -18820,303 +19033,455 @@
         <v>44516</v>
       </c>
       <c r="B15" s="142" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C15" s="79">
-        <v>107092.1</v>
+        <v>3918.4</v>
       </c>
       <c r="D15" s="144"/>
       <c r="E15" s="79"/>
       <c r="F15" s="145">
-        <f t="shared" si="0"/>
-        <v>380790.93000000005</v>
+        <f t="shared" si="1"/>
+        <v>278804.83</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="144">
+        <v>44516</v>
+      </c>
+      <c r="B16" s="142" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="79">
+        <v>107092.1</v>
+      </c>
+      <c r="D16" s="144"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="145">
+        <f t="shared" si="1"/>
+        <v>385896.93000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="144">
         <v>44517</v>
       </c>
-      <c r="B16" s="142" t="s">
+      <c r="B17" s="142" t="s">
         <v>292</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C17" s="79">
         <v>84186.4</v>
       </c>
-      <c r="D16" s="144">
+      <c r="D17" s="144">
         <v>44519</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E17" s="79">
         <v>385896.93</v>
       </c>
-      <c r="F16" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="144"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="79"/>
       <c r="F17" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>84186.400000000081</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="144"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="79"/>
+      <c r="A18" s="144">
+        <v>44518</v>
+      </c>
+      <c r="B18" s="142" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="79">
+        <v>54533.45</v>
+      </c>
       <c r="D18" s="144"/>
       <c r="E18" s="79"/>
       <c r="F18" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>138719.85000000009</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="144"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="79"/>
+      <c r="A19" s="144">
+        <v>44518</v>
+      </c>
+      <c r="B19" s="142" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="79">
+        <v>7216.2</v>
+      </c>
       <c r="D19" s="144"/>
       <c r="E19" s="79"/>
       <c r="F19" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>145936.0500000001</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="144"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="79"/>
+      <c r="A20" s="144">
+        <v>44519</v>
+      </c>
+      <c r="B20" s="142" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="79">
+        <v>62008.36</v>
+      </c>
       <c r="D20" s="144"/>
       <c r="E20" s="79"/>
       <c r="F20" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>207944.41000000009</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="144"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="144">
+        <v>44519</v>
+      </c>
+      <c r="B21" s="142" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="79">
+        <v>10455</v>
+      </c>
       <c r="D21" s="144"/>
       <c r="E21" s="79"/>
       <c r="F21" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="144"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="79"/>
+        <f t="shared" si="1"/>
+        <v>218399.41000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="144">
+        <v>44519</v>
+      </c>
+      <c r="B22" s="142" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="79">
+        <v>34732.5</v>
+      </c>
       <c r="D22" s="144"/>
       <c r="E22" s="79"/>
       <c r="F22" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
-      </c>
-      <c r="G22" s="146"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="144"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="79"/>
+        <f t="shared" si="1"/>
+        <v>253131.91000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="144">
+        <v>44520</v>
+      </c>
+      <c r="B23" s="142" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="79">
+        <v>71484.81</v>
+      </c>
       <c r="D23" s="144"/>
       <c r="E23" s="79"/>
       <c r="F23" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>324616.72000000009</v>
+      </c>
+      <c r="G23" s="146"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="144"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="79"/>
+      <c r="A24" s="144">
+        <v>44522</v>
+      </c>
+      <c r="B24" s="142" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24" s="79">
+        <v>29617.200000000001</v>
+      </c>
       <c r="D24" s="144"/>
       <c r="E24" s="79"/>
       <c r="F24" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>354233.9200000001</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="144"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="79"/>
+      <c r="A25" s="144">
+        <v>44523</v>
+      </c>
+      <c r="B25" s="142" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="79">
+        <v>95359.5</v>
+      </c>
       <c r="D25" s="144"/>
       <c r="E25" s="79"/>
       <c r="F25" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>449593.4200000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="144"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="79"/>
+      <c r="A26" s="144">
+        <v>44524</v>
+      </c>
+      <c r="B26" s="142" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="79">
+        <v>48460.6</v>
+      </c>
+      <c r="D26" s="144">
+        <v>44526</v>
+      </c>
+      <c r="E26" s="79">
+        <v>454699.42</v>
+      </c>
       <c r="F26" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>43354.600000000093</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="144"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="79"/>
+      <c r="A27" s="144">
+        <v>44524</v>
+      </c>
+      <c r="B27" s="142" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="79">
+        <v>7008</v>
+      </c>
       <c r="D27" s="144"/>
       <c r="E27" s="79"/>
       <c r="F27" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>50362.600000000093</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="144"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="79"/>
+      <c r="A28" s="144">
+        <v>44526</v>
+      </c>
+      <c r="B28" s="142" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" s="79">
+        <v>107660.79</v>
+      </c>
       <c r="D28" s="144"/>
       <c r="E28" s="79"/>
       <c r="F28" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>158023.39000000007</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="144"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="79"/>
+      <c r="A29" s="144">
+        <v>44526</v>
+      </c>
+      <c r="B29" s="142" t="s">
+        <v>310</v>
+      </c>
+      <c r="C29" s="79">
+        <v>11072.4</v>
+      </c>
       <c r="D29" s="144"/>
       <c r="E29" s="79"/>
       <c r="F29" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="144"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="79"/>
+        <f t="shared" si="1"/>
+        <v>169095.79000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="144">
+        <v>44527</v>
+      </c>
+      <c r="B30" s="142" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30" s="79">
+        <v>56836.33</v>
+      </c>
       <c r="D30" s="144"/>
       <c r="E30" s="79"/>
       <c r="F30" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
-      </c>
-      <c r="G30" s="146"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="144"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="79"/>
+        <f t="shared" si="1"/>
+        <v>225932.12000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="144">
+        <v>44528</v>
+      </c>
+      <c r="B31" s="142" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" s="79">
+        <v>7691.4</v>
+      </c>
       <c r="D31" s="144"/>
       <c r="E31" s="79"/>
       <c r="F31" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>233623.52000000005</v>
+      </c>
+      <c r="G31" s="146"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="144"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="79"/>
+      <c r="A32" s="144">
+        <v>44529</v>
+      </c>
+      <c r="B32" s="142" t="s">
+        <v>313</v>
+      </c>
+      <c r="C32" s="79">
+        <v>100226.7</v>
+      </c>
       <c r="D32" s="144"/>
       <c r="E32" s="79"/>
       <c r="F32" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>333850.22000000003</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="144"/>
-      <c r="B33" s="142"/>
-      <c r="C33" s="79"/>
+      <c r="A33" s="144">
+        <v>44530</v>
+      </c>
+      <c r="B33" s="142" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33" s="79">
+        <v>23788.3</v>
+      </c>
       <c r="D33" s="144"/>
       <c r="E33" s="79"/>
       <c r="F33" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>357638.52</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="144"/>
-      <c r="B34" s="142"/>
-      <c r="C34" s="79"/>
+      <c r="A34" s="144">
+        <v>44530</v>
+      </c>
+      <c r="B34" s="142" t="s">
+        <v>315</v>
+      </c>
+      <c r="C34" s="79">
+        <v>43255.9</v>
+      </c>
       <c r="D34" s="144"/>
       <c r="E34" s="79"/>
       <c r="F34" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>400894.42000000004</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="144"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="79"/>
+      <c r="A35" s="144">
+        <v>44531</v>
+      </c>
+      <c r="B35" s="142" t="s">
+        <v>316</v>
+      </c>
+      <c r="C35" s="79">
+        <v>64118.29</v>
+      </c>
       <c r="D35" s="144"/>
       <c r="E35" s="79"/>
       <c r="F35" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="144"/>
-      <c r="B36" s="142"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>465012.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="144">
+        <v>44532</v>
+      </c>
+      <c r="B36" s="142" t="s">
+        <v>317</v>
+      </c>
+      <c r="C36" s="79">
+        <v>70389.42</v>
+      </c>
+      <c r="D36" s="144">
+        <v>44533</v>
+      </c>
+      <c r="E36" s="79">
+        <v>540508.13</v>
+      </c>
+      <c r="F36" s="275">
+        <f t="shared" si="1"/>
+        <v>-5106</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="144"/>
-      <c r="B37" s="142"/>
-      <c r="C37" s="79"/>
+      <c r="A37" s="144">
+        <v>44533</v>
+      </c>
+      <c r="B37" s="142" t="s">
+        <v>318</v>
+      </c>
+      <c r="C37" s="79">
+        <v>62199.35</v>
+      </c>
       <c r="D37" s="144"/>
       <c r="E37" s="79"/>
       <c r="F37" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>57093.35</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="144"/>
-      <c r="B38" s="142"/>
-      <c r="C38" s="79"/>
+      <c r="A38" s="144">
+        <v>44534</v>
+      </c>
+      <c r="B38" s="142" t="s">
+        <v>319</v>
+      </c>
+      <c r="C38" s="79">
+        <v>50323.32</v>
+      </c>
       <c r="D38" s="144"/>
       <c r="E38" s="79"/>
       <c r="F38" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>107416.67</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="144"/>
-      <c r="B39" s="142"/>
-      <c r="C39" s="79"/>
+      <c r="A39" s="144">
+        <v>44534</v>
+      </c>
+      <c r="B39" s="142" t="s">
+        <v>320</v>
+      </c>
+      <c r="C39" s="79">
+        <v>100271.25</v>
+      </c>
       <c r="D39" s="144"/>
       <c r="E39" s="79"/>
       <c r="F39" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>207687.91999999998</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="144"/>
-      <c r="B40" s="142"/>
-      <c r="C40" s="79"/>
+      <c r="A40" s="144">
+        <v>44534</v>
+      </c>
+      <c r="B40" s="142" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="79">
+        <v>27427.599999999999</v>
+      </c>
       <c r="D40" s="144"/>
       <c r="E40" s="79"/>
       <c r="F40" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19126,8 +19491,8 @@
       <c r="D41" s="144"/>
       <c r="E41" s="79"/>
       <c r="F41" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19137,8 +19502,8 @@
       <c r="D42" s="144"/>
       <c r="E42" s="79"/>
       <c r="F42" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19148,8 +19513,8 @@
       <c r="D43" s="144"/>
       <c r="E43" s="79"/>
       <c r="F43" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19159,8 +19524,8 @@
       <c r="D44" s="144"/>
       <c r="E44" s="79"/>
       <c r="F44" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19170,8 +19535,8 @@
       <c r="D45" s="144"/>
       <c r="E45" s="79"/>
       <c r="F45" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19181,8 +19546,8 @@
       <c r="D46" s="144"/>
       <c r="E46" s="79"/>
       <c r="F46" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19192,8 +19557,8 @@
       <c r="D47" s="144"/>
       <c r="E47" s="79"/>
       <c r="F47" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19203,8 +19568,8 @@
       <c r="D48" s="144"/>
       <c r="E48" s="79"/>
       <c r="F48" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19214,8 +19579,8 @@
       <c r="D49" s="144"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19225,8 +19590,8 @@
       <c r="D50" s="144"/>
       <c r="E50" s="79"/>
       <c r="F50" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19236,8 +19601,8 @@
       <c r="D51" s="144"/>
       <c r="E51" s="79"/>
       <c r="F51" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19247,8 +19612,8 @@
       <c r="D52" s="144"/>
       <c r="E52" s="79"/>
       <c r="F52" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19258,19 +19623,19 @@
       <c r="D53" s="144"/>
       <c r="E53" s="79"/>
       <c r="F53" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="141"/>
+      <c r="A54" s="144"/>
       <c r="B54" s="142"/>
       <c r="C54" s="79"/>
       <c r="D54" s="144"/>
       <c r="E54" s="79"/>
       <c r="F54" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19280,8 +19645,8 @@
       <c r="D55" s="144"/>
       <c r="E55" s="79"/>
       <c r="F55" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19291,19 +19656,19 @@
       <c r="D56" s="144"/>
       <c r="E56" s="79"/>
       <c r="F56" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="144"/>
+      <c r="A57" s="141"/>
       <c r="B57" s="142"/>
       <c r="C57" s="79"/>
       <c r="D57" s="144"/>
       <c r="E57" s="79"/>
       <c r="F57" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19313,8 +19678,8 @@
       <c r="D58" s="144"/>
       <c r="E58" s="79"/>
       <c r="F58" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19324,19 +19689,19 @@
       <c r="D59" s="144"/>
       <c r="E59" s="79"/>
       <c r="F59" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="141"/>
+      <c r="A60" s="144"/>
       <c r="B60" s="142"/>
       <c r="C60" s="79"/>
       <c r="D60" s="144"/>
       <c r="E60" s="79"/>
       <c r="F60" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19346,8 +19711,8 @@
       <c r="D61" s="144"/>
       <c r="E61" s="79"/>
       <c r="F61" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -19357,30 +19722,30 @@
       <c r="D62" s="144"/>
       <c r="E62" s="79"/>
       <c r="F62" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="188"/>
-      <c r="B63" s="185"/>
-      <c r="C63" s="186"/>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="141"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="79"/>
       <c r="D63" s="144"/>
       <c r="E63" s="79"/>
       <c r="F63" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="188"/>
       <c r="B64" s="185"/>
       <c r="C64" s="186"/>
       <c r="D64" s="144"/>
       <c r="E64" s="79"/>
       <c r="F64" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19390,8 +19755,8 @@
       <c r="D65" s="144"/>
       <c r="E65" s="79"/>
       <c r="F65" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19401,8 +19766,8 @@
       <c r="D66" s="144"/>
       <c r="E66" s="79"/>
       <c r="F66" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19412,8 +19777,8 @@
       <c r="D67" s="144"/>
       <c r="E67" s="79"/>
       <c r="F67" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19423,8 +19788,8 @@
       <c r="D68" s="144"/>
       <c r="E68" s="79"/>
       <c r="F68" s="145">
-        <f t="shared" si="0"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19434,8 +19799,8 @@
       <c r="D69" s="144"/>
       <c r="E69" s="79"/>
       <c r="F69" s="145">
-        <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
-        <v>79080.400000000081</v>
+        <f t="shared" si="1"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19446,7 +19811,7 @@
       <c r="E70" s="79"/>
       <c r="F70" s="145">
         <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19457,7 +19822,7 @@
       <c r="E71" s="79"/>
       <c r="F71" s="145">
         <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19468,7 +19833,7 @@
       <c r="E72" s="79"/>
       <c r="F72" s="145">
         <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19479,7 +19844,7 @@
       <c r="E73" s="79"/>
       <c r="F73" s="145">
         <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19489,8 +19854,8 @@
       <c r="D74" s="144"/>
       <c r="E74" s="79"/>
       <c r="F74" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" ref="F74:F98" si="2">F73+C74-E74</f>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19500,8 +19865,8 @@
       <c r="D75" s="144"/>
       <c r="E75" s="79"/>
       <c r="F75" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19511,8 +19876,8 @@
       <c r="D76" s="144"/>
       <c r="E76" s="79"/>
       <c r="F76" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19522,8 +19887,8 @@
       <c r="D77" s="144"/>
       <c r="E77" s="79"/>
       <c r="F77" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19533,8 +19898,8 @@
       <c r="D78" s="144"/>
       <c r="E78" s="79"/>
       <c r="F78" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19544,8 +19909,8 @@
       <c r="D79" s="144"/>
       <c r="E79" s="79"/>
       <c r="F79" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19555,19 +19920,19 @@
       <c r="D80" s="144"/>
       <c r="E80" s="79"/>
       <c r="F80" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="189"/>
-      <c r="B81" s="190"/>
-      <c r="C81" s="191"/>
-      <c r="D81" s="147"/>
-      <c r="E81" s="83"/>
+      <c r="A81" s="188"/>
+      <c r="B81" s="185"/>
+      <c r="C81" s="186"/>
+      <c r="D81" s="144"/>
+      <c r="E81" s="79"/>
       <c r="F81" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19577,8 +19942,8 @@
       <c r="D82" s="147"/>
       <c r="E82" s="83"/>
       <c r="F82" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19588,8 +19953,8 @@
       <c r="D83" s="147"/>
       <c r="E83" s="83"/>
       <c r="F83" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19599,8 +19964,8 @@
       <c r="D84" s="147"/>
       <c r="E84" s="83"/>
       <c r="F84" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19610,8 +19975,8 @@
       <c r="D85" s="147"/>
       <c r="E85" s="83"/>
       <c r="F85" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19621,19 +19986,19 @@
       <c r="D86" s="147"/>
       <c r="E86" s="83"/>
       <c r="F86" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="188"/>
-      <c r="B87" s="185"/>
-      <c r="C87" s="186"/>
-      <c r="D87" s="148"/>
-      <c r="E87" s="79"/>
+      <c r="A87" s="189"/>
+      <c r="B87" s="190"/>
+      <c r="C87" s="191"/>
+      <c r="D87" s="147"/>
+      <c r="E87" s="83"/>
       <c r="F87" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19643,8 +20008,8 @@
       <c r="D88" s="148"/>
       <c r="E88" s="79"/>
       <c r="F88" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19654,8 +20019,8 @@
       <c r="D89" s="148"/>
       <c r="E89" s="79"/>
       <c r="F89" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19665,8 +20030,8 @@
       <c r="D90" s="148"/>
       <c r="E90" s="79"/>
       <c r="F90" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19676,8 +20041,8 @@
       <c r="D91" s="148"/>
       <c r="E91" s="79"/>
       <c r="F91" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19687,8 +20052,8 @@
       <c r="D92" s="148"/>
       <c r="E92" s="79"/>
       <c r="F92" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19698,8 +20063,8 @@
       <c r="D93" s="148"/>
       <c r="E93" s="79"/>
       <c r="F93" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19709,8 +20074,8 @@
       <c r="D94" s="148"/>
       <c r="E94" s="79"/>
       <c r="F94" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19720,8 +20085,8 @@
       <c r="D95" s="148"/>
       <c r="E95" s="79"/>
       <c r="F95" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19731,45 +20096,50 @@
       <c r="D96" s="148"/>
       <c r="E96" s="79"/>
       <c r="F96" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="149"/>
-      <c r="B97" s="150"/>
-      <c r="C97" s="151">
-        <v>0</v>
-      </c>
-      <c r="D97" s="152"/>
-      <c r="E97" s="151"/>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="188"/>
+      <c r="B97" s="185"/>
+      <c r="C97" s="186"/>
+      <c r="D97" s="148"/>
+      <c r="E97" s="79"/>
       <c r="F97" s="145">
-        <f t="shared" si="1"/>
-        <v>79080.400000000081</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B98" s="104"/>
-      <c r="C98" s="3">
-        <f>SUM(C3:C97)</f>
-        <v>605744.88</v>
-      </c>
-      <c r="D98" s="103"/>
-      <c r="E98" s="3">
-        <f>SUM(E3:E97)</f>
-        <v>526664.48</v>
-      </c>
-      <c r="F98" s="153">
-        <f>F97</f>
-        <v>79080.400000000081</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="104"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="103"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="3"/>
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="276"/>
+      <c r="B98" s="277"/>
+      <c r="C98" s="83">
+        <v>0</v>
+      </c>
+      <c r="D98" s="278"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="145">
+        <f t="shared" si="2"/>
+        <v>235115.51999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="279"/>
+      <c r="B99" s="280"/>
+      <c r="C99" s="281">
+        <f>SUM(C4:C98)</f>
+        <v>1751881.5499999998</v>
+      </c>
+      <c r="D99" s="282"/>
+      <c r="E99" s="283">
+        <f>SUM(E4:E98)</f>
+        <v>1521872.0299999998</v>
+      </c>
+      <c r="F99" s="153">
+        <f>F98</f>
+        <v>235115.51999999999</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B100" s="104"/>
@@ -19779,9 +20149,11 @@
       <c r="F100" s="3"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101"/>
-      <c r="B101" s="20"/>
-      <c r="D101" s="20"/>
+      <c r="B101" s="104"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="3"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102"/>
@@ -19797,7 +20169,6 @@
       <c r="A104"/>
       <c r="B104" s="20"/>
       <c r="D104" s="20"/>
-      <c r="F104"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105"/>
@@ -19851,7 +20222,6 @@
       <c r="A113"/>
       <c r="B113" s="20"/>
       <c r="D113" s="20"/>
-      <c r="E113"/>
       <c r="F113"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -19890,9 +20260,11 @@
       <c r="F118"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119"/>
       <c r="B119" s="20"/>
       <c r="D119" s="20"/>
       <c r="E119"/>
+      <c r="F119"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B120" s="20"/>
@@ -19936,16 +20308,18 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="20"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="20"/>
-      <c r="D130" s="20"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="20"/>
+      <c r="D131" s="20"/>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="20"/>
@@ -19953,8 +20327,11 @@
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="20"/>
     </row>
-    <row r="134" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C134" s="154"/>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="20"/>
+    </row>
+    <row r="135" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C135" s="154"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
